--- a/data/hotels_by_city/Houston/Houston_shard_335.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_335.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="295">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56432-d1852910-Reviews-Holiday_Inn_Express_Houston_South_Pearland-Pearland_Texas.html</t>
   </si>
   <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Holiday-Inn-Express-Suites-Houston-South-Near-Pearland.h3837323.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,775 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1852910-r575219274-Holiday_Inn_Express_Houston_South_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>56432</t>
+  </si>
+  <si>
+    <t>1852910</t>
+  </si>
+  <si>
+    <t>575219274</t>
+  </si>
+  <si>
+    <t>04/23/2018</t>
+  </si>
+  <si>
+    <t>Concert</t>
+  </si>
+  <si>
+    <t>This Address is 11160 Southwest Freeway, This was the worst experience I ever had, at any Ihg property, no hot water, no T.V., plugs not working, phones not working, Dominique the Front Desk Agent was so helpful from through check in and check out, Dirty Towels given to us at the desk is unacceptable, could not bathe before the event is horrible, waiting on a phone call from General Manager that I have not got yet is sad, no guarantee was posted, no where came in could not bathe and departed could not bathe Wow I was at the desk and the wedding party was complaining as I no Hot water will never return there r recommend this Hotel to anyone just frustrating and disgusting they Domonigue again for stepping in and the Spirit u had, just never seen a hotel that a General Manager can't be called to make a Guest Satisfied when they are that unhappy That's not the way IHG take care their guest, Because IHG takes care all their guest, Employees and all rather my rates employee r Family and friends, very upset, thanks IHG for taking care my family member and giving their money back, but as for me and my 2 rooms we OK because we were sisters but at least the family that met me in Houston from Austin was given her money back but never again will I go back there and...This Address is 11160 Southwest Freeway, This was the worst experience I ever had, at any Ihg property, no hot water, no T.V., plugs not working, phones not working, Dominique the Front Desk Agent was so helpful from through check in and check out, Dirty Towels given to us at the desk is unacceptable, could not bathe before the event is horrible, waiting on a phone call from General Manager that I have not got yet is sad, no guarantee was posted, no where came in could not bathe and departed could not bathe Wow I was at the desk and the wedding party was complaining as I no Hot water will never return there r recommend this Hotel to anyone just frustrating and disgusting they Domonigue again for stepping in and the Spirit u had, just never seen a hotel that a General Manager can't be called to make a Guest Satisfied when they are that unhappy That's not the way IHG take care their guest, Because IHG takes care all their guest, Employees and all rather my rates employee r Family and friends, very upset, thanks IHG for taking care my family member and giving their money back, but as for me and my 2 rooms we OK because we were sisters but at least the family that met me in Houston from Austin was given her money back but never again will I go back there and be treated like that because I was throwed away as a member MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Houston South - Pearland, responded to this reviewResponded May 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 8, 2018</t>
+  </si>
+  <si>
+    <t>This Address is 11160 Southwest Freeway, This was the worst experience I ever had, at any Ihg property, no hot water, no T.V., plugs not working, phones not working, Dominique the Front Desk Agent was so helpful from through check in and check out, Dirty Towels given to us at the desk is unacceptable, could not bathe before the event is horrible, waiting on a phone call from General Manager that I have not got yet is sad, no guarantee was posted, no where came in could not bathe and departed could not bathe Wow I was at the desk and the wedding party was complaining as I no Hot water will never return there r recommend this Hotel to anyone just frustrating and disgusting they Domonigue again for stepping in and the Spirit u had, just never seen a hotel that a General Manager can't be called to make a Guest Satisfied when they are that unhappy That's not the way IHG take care their guest, Because IHG takes care all their guest, Employees and all rather my rates employee r Family and friends, very upset, thanks IHG for taking care my family member and giving their money back, but as for me and my 2 rooms we OK because we were sisters but at least the family that met me in Houston from Austin was given her money back but never again will I go back there and...This Address is 11160 Southwest Freeway, This was the worst experience I ever had, at any Ihg property, no hot water, no T.V., plugs not working, phones not working, Dominique the Front Desk Agent was so helpful from through check in and check out, Dirty Towels given to us at the desk is unacceptable, could not bathe before the event is horrible, waiting on a phone call from General Manager that I have not got yet is sad, no guarantee was posted, no where came in could not bathe and departed could not bathe Wow I was at the desk and the wedding party was complaining as I no Hot water will never return there r recommend this Hotel to anyone just frustrating and disgusting they Domonigue again for stepping in and the Spirit u had, just never seen a hotel that a General Manager can't be called to make a Guest Satisfied when they are that unhappy That's not the way IHG take care their guest, Because IHG takes care all their guest, Employees and all rather my rates employee r Family and friends, very upset, thanks IHG for taking care my family member and giving their money back, but as for me and my 2 rooms we OK because we were sisters but at least the family that met me in Houston from Austin was given her money back but never again will I go back there and be treated like that because I was throwed away as a member More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1852910-r533180295-Holiday_Inn_Express_Houston_South_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>533180295</t>
+  </si>
+  <si>
+    <t>10/15/2017</t>
+  </si>
+  <si>
+    <t>No thanks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I chose this property for its location. Great idea but bad choice. Room was clean. Air conditioning worked well. Staff could use some training. Posted breakfast time was 7:00 am on Saturday but was not open until 7:30. WiFi was poor. </t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1852910-r468659326-Holiday_Inn_Express_Houston_South_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>468659326</t>
+  </si>
+  <si>
+    <t>03/19/2017</t>
+  </si>
+  <si>
+    <t>WiFi Lie</t>
+  </si>
+  <si>
+    <t>My family and I have stayed at quite a few  Holiday Express hotels. They usually follow a certain standard.  Such as good functioning Wi-Fi and a swimming pool. These two points were sorely lacking at our stay at Holiday Inn Express and Suites Pearland.  During our four night stay we were told repeatedly that the pool needed to be cleaned and was not open, yet they never cleaned it.  We were placed in room 300 which apparently is a room out of reach of their Wi-Fi.  With two teenagers it was very important that we had the free Wi-Fi as  advertised. This was one of the main reasons that I chose this location.  When I reported the lack of Wi-Fi the young man at the front desk stated there's Wi-Fi in the lobby. I told him that we were supposed to have Wi-Fi in the room and it is not working,  but he made no apology for its absence or any remedy, other than to come to the lobby.  I feel like I should be reimbursed for my overage on my cellular data plan! MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Houston South - Pearland, responded to this reviewResponded April 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 2, 2017</t>
+  </si>
+  <si>
+    <t>My family and I have stayed at quite a few  Holiday Express hotels. They usually follow a certain standard.  Such as good functioning Wi-Fi and a swimming pool. These two points were sorely lacking at our stay at Holiday Inn Express and Suites Pearland.  During our four night stay we were told repeatedly that the pool needed to be cleaned and was not open, yet they never cleaned it.  We were placed in room 300 which apparently is a room out of reach of their Wi-Fi.  With two teenagers it was very important that we had the free Wi-Fi as  advertised. This was one of the main reasons that I chose this location.  When I reported the lack of Wi-Fi the young man at the front desk stated there's Wi-Fi in the lobby. I told him that we were supposed to have Wi-Fi in the room and it is not working,  but he made no apology for its absence or any remedy, other than to come to the lobby.  I feel like I should be reimbursed for my overage on my cellular data plan! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1852910-r345380355-Holiday_Inn_Express_Houston_South_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>345380355</t>
+  </si>
+  <si>
+    <t>02/06/2016</t>
+  </si>
+  <si>
+    <t>Nice hotel, not so great staff!</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel for 9 nights. Upon check-in the first evening in 1/27, Maddie was not helpful whatsoever nor was she pleasant. Didn't greet me as a platinum member and was not accommodating. I requested a room far from interstate, she informed me they were booked. Inquired if someone would be checking out of one of those rooms in the next day or two, she told me she didn't know and had no way of checking. When I mentioned I may need to look at other local hotels before checking in, she immediately asked if I wanted to cancel my reservation. When I confirmed what she said about having no way of checking, she suddenly had a way of checking after the other other lady working with her came up. I also inquired about my welcome points since didn't ask if I wanted those or a welcome bag. They other lady stated they usually just give the points since that's what most people want. Upon her saying that, she noticed Maddie didn't write my info down to get the points. Had I not asked, I would not have received my points.
+ At first I thought Maddie just lacked customer service skills, but when men checked-in or came to the desk for anything, she was extremely pleasant. Guess she's more focused on flirting with her guests than helping other guests.
+I also noticed any time I passed the front desk...Stayed at this hotel for 9 nights. Upon check-in the first evening in 1/27, Maddie was not helpful whatsoever nor was she pleasant. Didn't greet me as a platinum member and was not accommodating. I requested a room far from interstate, she informed me they were booked. Inquired if someone would be checking out of one of those rooms in the next day or two, she told me she didn't know and had no way of checking. When I mentioned I may need to look at other local hotels before checking in, she immediately asked if I wanted to cancel my reservation. When I confirmed what she said about having no way of checking, she suddenly had a way of checking after the other other lady working with her came up. I also inquired about my welcome points since didn't ask if I wanted those or a welcome bag. They other lady stated they usually just give the points since that's what most people want. Upon her saying that, she noticed Maddie didn't write my info down to get the points. Had I not asked, I would not have received my points. At first I thought Maddie just lacked customer service skills, but when men checked-in or came to the desk for anything, she was extremely pleasant. Guess she's more focused on flirting with her guests than helping other guests.I also noticed any time I passed the front desk to leave or return throughout my stay, Maddie never said a word. (So not the norm when staying at other IHG hotels. I'm a weekly business traveler.)Then when I noticed I was catching a cold the night of 2/1, I called the front desk to see if they had cough drops. (I wanted to know prior to putting my jacket on and stuff to get some offsite.) The lady who answered said no. As I was headed out to purchase some, I decided to check their little convenience area anyway. What do you know, they had some. I waited to check out, but no one came. There were also people waiting to check-in. They looked frustrated so I inquired if someone was helping them. They said no. So I said "excuse me". Heard a voice saying I'll be with you in a moment. When the lady came to the front desk, (couldn't see her name badge, but she had  ombré  hair and you could tell she was at the back eating because she was still chewing when she came), she quickly says "sorry I told you we didn't have any, I forgot those were there." The next night, I thought to inquire how much was charged to my room that previous night since the lady didn't know what they carried. (I guess it was too much for her to look through the little cut-out from the front desk to check stock and price when she was assisting me.) What do you know, she over charged me. The guy working that night took care of it.About 5:30am the morning of 2/4, I woke up feeling really bad. It was obvious that I was sick because my voice was pretty much gone. Before I could get the words out asking if there was anyway he could bring some cough drops to my door and charge my room, Brent rudely cut me off and said no you'd have to come to the front desk to get anything you need. I understand if they can't leave the desk, but my frustration grew from him rudely cutting me off when I was struggling just to get the words out clearly. Don't get me wrong, the entire staff is not poor at providing good customer service, But those 3 I encountered during my stay were. The lady working 1/30 around 12pm was extremely nice anytime I passed her at the front desk and when my tv stopped working, she took care of it quickly. Also the lady working check-in with Maddie around 6pm 1/27 was very accommodating and helpful. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Houston South - Pearland, responded to this reviewResponded February 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 23, 2016</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel for 9 nights. Upon check-in the first evening in 1/27, Maddie was not helpful whatsoever nor was she pleasant. Didn't greet me as a platinum member and was not accommodating. I requested a room far from interstate, she informed me they were booked. Inquired if someone would be checking out of one of those rooms in the next day or two, she told me she didn't know and had no way of checking. When I mentioned I may need to look at other local hotels before checking in, she immediately asked if I wanted to cancel my reservation. When I confirmed what she said about having no way of checking, she suddenly had a way of checking after the other other lady working with her came up. I also inquired about my welcome points since didn't ask if I wanted those or a welcome bag. They other lady stated they usually just give the points since that's what most people want. Upon her saying that, she noticed Maddie didn't write my info down to get the points. Had I not asked, I would not have received my points.
+ At first I thought Maddie just lacked customer service skills, but when men checked-in or came to the desk for anything, she was extremely pleasant. Guess she's more focused on flirting with her guests than helping other guests.
+I also noticed any time I passed the front desk...Stayed at this hotel for 9 nights. Upon check-in the first evening in 1/27, Maddie was not helpful whatsoever nor was she pleasant. Didn't greet me as a platinum member and was not accommodating. I requested a room far from interstate, she informed me they were booked. Inquired if someone would be checking out of one of those rooms in the next day or two, she told me she didn't know and had no way of checking. When I mentioned I may need to look at other local hotels before checking in, she immediately asked if I wanted to cancel my reservation. When I confirmed what she said about having no way of checking, she suddenly had a way of checking after the other other lady working with her came up. I also inquired about my welcome points since didn't ask if I wanted those or a welcome bag. They other lady stated they usually just give the points since that's what most people want. Upon her saying that, she noticed Maddie didn't write my info down to get the points. Had I not asked, I would not have received my points. At first I thought Maddie just lacked customer service skills, but when men checked-in or came to the desk for anything, she was extremely pleasant. Guess she's more focused on flirting with her guests than helping other guests.I also noticed any time I passed the front desk to leave or return throughout my stay, Maddie never said a word. (So not the norm when staying at other IHG hotels. I'm a weekly business traveler.)Then when I noticed I was catching a cold the night of 2/1, I called the front desk to see if they had cough drops. (I wanted to know prior to putting my jacket on and stuff to get some offsite.) The lady who answered said no. As I was headed out to purchase some, I decided to check their little convenience area anyway. What do you know, they had some. I waited to check out, but no one came. There were also people waiting to check-in. They looked frustrated so I inquired if someone was helping them. They said no. So I said "excuse me". Heard a voice saying I'll be with you in a moment. When the lady came to the front desk, (couldn't see her name badge, but she had  ombré  hair and you could tell she was at the back eating because she was still chewing when she came), she quickly says "sorry I told you we didn't have any, I forgot those were there." The next night, I thought to inquire how much was charged to my room that previous night since the lady didn't know what they carried. (I guess it was too much for her to look through the little cut-out from the front desk to check stock and price when she was assisting me.) What do you know, she over charged me. The guy working that night took care of it.About 5:30am the morning of 2/4, I woke up feeling really bad. It was obvious that I was sick because my voice was pretty much gone. Before I could get the words out asking if there was anyway he could bring some cough drops to my door and charge my room, Brent rudely cut me off and said no you'd have to come to the front desk to get anything you need. I understand if they can't leave the desk, but my frustration grew from him rudely cutting me off when I was struggling just to get the words out clearly. Don't get me wrong, the entire staff is not poor at providing good customer service, But those 3 I encountered during my stay were. The lady working 1/30 around 12pm was extremely nice anytime I passed her at the front desk and when my tv stopped working, she took care of it quickly. Also the lady working check-in with Maddie around 6pm 1/27 was very accommodating and helpful. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1852910-r341803442-Holiday_Inn_Express_Houston_South_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>341803442</t>
+  </si>
+  <si>
+    <t>01/21/2016</t>
+  </si>
+  <si>
+    <t>Don't try to use the Internet</t>
+  </si>
+  <si>
+    <t>Room, breakfast, bed, AC and shower were all normal for the HI chain. The Internet was beyond slow. It literally took 12 minutes to load this page on my computer.  I timed it.  According to the front desk, when the hotel is full, there isn't enough bandwidth for "everyone" to be on the Internet. I would have paid to upgrade to a different wifi, but it was not available. I couldn't get a solid connection to my work server either. This hotel isn't inexpensive. If an amenity is provided, it should be functional. If the breakfast was one muffin shared between 3 people, would the compleimentary breakfast really be worth it?MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Houston South - Pearland, responded to this reviewResponded February 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 4, 2016</t>
+  </si>
+  <si>
+    <t>Room, breakfast, bed, AC and shower were all normal for the HI chain. The Internet was beyond slow. It literally took 12 minutes to load this page on my computer.  I timed it.  According to the front desk, when the hotel is full, there isn't enough bandwidth for "everyone" to be on the Internet. I would have paid to upgrade to a different wifi, but it was not available. I couldn't get a solid connection to my work server either. This hotel isn't inexpensive. If an amenity is provided, it should be functional. If the breakfast was one muffin shared between 3 people, would the compleimentary breakfast really be worth it?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1852910-r341210582-Holiday_Inn_Express_Houston_South_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>341210582</t>
+  </si>
+  <si>
+    <t>01/19/2016</t>
+  </si>
+  <si>
+    <t>Management</t>
+  </si>
+  <si>
+    <t>The building is new and beautiful. The upper Management is not so. My parents and i stay over the weekend and my mom got bite by something on her face and arms. i told the front desk what happen and she told my information so that the front office manager could call me on Monday since not managers was there at the time. I call Monday and the manager wasn't in i was told, i call Tuesday and the manager was to busy to take my call asked to speak to the General Manager and he also was busy and unable to take my call. I had to make a doctor appoint for my mom and they are to busy to take a call. If this is how management handle incident that occur on their property i won't want to stay there. If they don't know who to deal with incidents then they are in the wrong line of business or need to go and take some additional class on how to deal with this time of incident. Have not or I don't think they will return my call. Watch out for the unprofessional Manager at this Holiday Inn Express.MoreShow less</t>
+  </si>
+  <si>
+    <t>The building is new and beautiful. The upper Management is not so. My parents and i stay over the weekend and my mom got bite by something on her face and arms. i told the front desk what happen and she told my information so that the front office manager could call me on Monday since not managers was there at the time. I call Monday and the manager wasn't in i was told, i call Tuesday and the manager was to busy to take my call asked to speak to the General Manager and he also was busy and unable to take my call. I had to make a doctor appoint for my mom and they are to busy to take a call. If this is how management handle incident that occur on their property i won't want to stay there. If they don't know who to deal with incidents then they are in the wrong line of business or need to go and take some additional class on how to deal with this time of incident. Have not or I don't think they will return my call. Watch out for the unprofessional Manager at this Holiday Inn Express.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1852910-r300498688-Holiday_Inn_Express_Houston_South_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>300498688</t>
+  </si>
+  <si>
+    <t>08/17/2015</t>
+  </si>
+  <si>
+    <t>Beware HOTEL will take your money and reject your points</t>
+  </si>
+  <si>
+    <t>This hotel has totally done what they teach you in hotel management and service industry school not to do, that is fight the customer. I paid for the hotel stay with my points.  I checked in at front desk with no problems gave them my credit/debit card for a 25.00 hold no issues here...stayed the night and checked out early Saturday morning...no issues...then I check my account Monday morning and I see a charge for 127.00 on my account.  I called the location and got the run around and was asked to leave my number and promised a solution yet no one called me back to offer apology or help.  As a matter of fact both of the people I spoke with seem to take offense that I was questioning and accusing them theft.  I explained that the points I used were reversed back into my account and cash was taken from my credit card account.  I contacted the IHG Corporate Relation team and them sent a request for the manager to contact me with explanation and solution.  I never got a call from anyone at this location.  I contacted the IHG Corporate office on 8/17/2015 to find out the progress of my complaint and they said no one had responded to them nor me.  What a horrible example of hospitality. I will never ever stay at this location...in my eyes they are thieves and LOVE to fight the customer...This hotel has totally done what they teach you in hotel management and service industry school not to do, that is fight the customer. I paid for the hotel stay with my points.  I checked in at front desk with no problems gave them my credit/debit card for a 25.00 hold no issues here...stayed the night and checked out early Saturday morning...no issues...then I check my account Monday morning and I see a charge for 127.00 on my account.  I called the location and got the run around and was asked to leave my number and promised a solution yet no one called me back to offer apology or help.  As a matter of fact both of the people I spoke with seem to take offense that I was questioning and accusing them theft.  I explained that the points I used were reversed back into my account and cash was taken from my credit card account.  I contacted the IHG Corporate Relation team and them sent a request for the manager to contact me with explanation and solution.  I never got a call from anyone at this location.  I contacted the IHG Corporate office on 8/17/2015 to find out the progress of my complaint and they said no one had responded to them nor me.  What a horrible example of hospitality. I will never ever stay at this location...in my eyes they are thieves and LOVE to fight the customer with no response and a load of passing the bucket.  Horrible Horrible Horrible.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Houston South - Pearland, responded to this reviewResponded September 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 1, 2015</t>
+  </si>
+  <si>
+    <t>This hotel has totally done what they teach you in hotel management and service industry school not to do, that is fight the customer. I paid for the hotel stay with my points.  I checked in at front desk with no problems gave them my credit/debit card for a 25.00 hold no issues here...stayed the night and checked out early Saturday morning...no issues...then I check my account Monday morning and I see a charge for 127.00 on my account.  I called the location and got the run around and was asked to leave my number and promised a solution yet no one called me back to offer apology or help.  As a matter of fact both of the people I spoke with seem to take offense that I was questioning and accusing them theft.  I explained that the points I used were reversed back into my account and cash was taken from my credit card account.  I contacted the IHG Corporate Relation team and them sent a request for the manager to contact me with explanation and solution.  I never got a call from anyone at this location.  I contacted the IHG Corporate office on 8/17/2015 to find out the progress of my complaint and they said no one had responded to them nor me.  What a horrible example of hospitality. I will never ever stay at this location...in my eyes they are thieves and LOVE to fight the customer...This hotel has totally done what they teach you in hotel management and service industry school not to do, that is fight the customer. I paid for the hotel stay with my points.  I checked in at front desk with no problems gave them my credit/debit card for a 25.00 hold no issues here...stayed the night and checked out early Saturday morning...no issues...then I check my account Monday morning and I see a charge for 127.00 on my account.  I called the location and got the run around and was asked to leave my number and promised a solution yet no one called me back to offer apology or help.  As a matter of fact both of the people I spoke with seem to take offense that I was questioning and accusing them theft.  I explained that the points I used were reversed back into my account and cash was taken from my credit card account.  I contacted the IHG Corporate Relation team and them sent a request for the manager to contact me with explanation and solution.  I never got a call from anyone at this location.  I contacted the IHG Corporate office on 8/17/2015 to find out the progress of my complaint and they said no one had responded to them nor me.  What a horrible example of hospitality. I will never ever stay at this location...in my eyes they are thieves and LOVE to fight the customer with no response and a load of passing the bucket.  Horrible Horrible Horrible.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1852910-r291268259-Holiday_Inn_Express_Houston_South_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>291268259</t>
+  </si>
+  <si>
+    <t>07/21/2015</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>The room was clean, the bathroom was semi cleaned, the room was a decent size and breakfast......well it's your typical hotel breakfast!! The check in process was smooth and quick, and the check out was the same.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Houston South - Pearland, responded to this reviewResponded August 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 5, 2015</t>
+  </si>
+  <si>
+    <t>The room was clean, the bathroom was semi cleaned, the room was a decent size and breakfast......well it's your typical hotel breakfast!! The check in process was smooth and quick, and the check out was the same.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1852910-r286467545-Holiday_Inn_Express_Houston_South_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>286467545</t>
+  </si>
+  <si>
+    <t>07/07/2015</t>
+  </si>
+  <si>
+    <t>Very nice</t>
+  </si>
+  <si>
+    <t>I do not understand why the handicap room was on the second floor the room was very clean thin walls very body was nice there  it was a busy hotel  the pool area was nices The location by Bass Pro Shop it was in the middle good location close to downtown</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1852910-r257658661-Holiday_Inn_Express_Houston_South_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>257658661</t>
+  </si>
+  <si>
+    <t>03/04/2015</t>
+  </si>
+  <si>
+    <t>5 stars</t>
+  </si>
+  <si>
+    <t>We stayed here the night before our cruise and we were VERY pleased. The entrance and lobby was clean, well lit and up to date. The staff at the front desk was super friendly and very helpful. Our room was clean and up to date. We had everything that we needed! A bonus was the adjustable bed. We could make it firm or soft and we definitely took advantage of this! My husband likes a more firm bed and I like more cushion. We often visit Houston and I think we found our new spot!</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1852910-r254580793-Holiday_Inn_Express_Houston_South_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>254580793</t>
+  </si>
+  <si>
+    <t>02/16/2015</t>
+  </si>
+  <si>
+    <t>Clean and Comfortable Room</t>
+  </si>
+  <si>
+    <t>We were greeted by the staff as we came and went from the hotel. Our room was clean and comfortable with a fridge and microwave. Towels were white and fluffy and there was plenty of shampoo and soap. I wasn't able to connect to the internet with my computer, but connected quickly with my IPhone. The channels on the tv seemed to have been selected for male guests with all the sports channels and no HGTV. Breakfast was typical fast food that I really don't like. I did appreciate the non-fat yogurt and fresh fruit that was available. We had a comfortable two nights at Holiday Inn Express.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1852910-r243945410-Holiday_Inn_Express_Houston_South_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>243945410</t>
+  </si>
+  <si>
+    <t>12/10/2014</t>
+  </si>
+  <si>
+    <t>I heard breathing</t>
+  </si>
+  <si>
+    <t>The Television in the next room was easily heard in my room. I turned off the TV, turned off the lights and got into bed. Then I heard breathing… breathing at a normal rhythm. I was in a room with two double beds, it sounded like someone was in the room with me, just breathing. I turned on the lights, looked around, no one was there. I could still hear the breathing. So it seems there is absolutely no sound proofing in the walls, I believe that the guest in the adjoining room was asleep and nearly snoring, to the point that his respirations were easily heard in my room. It really did not bother me, I went right to sleep, but it could easily be considered very creepy to hear to someone that is a little jumpy. The rates here are great, the service is good, but I would not recommend this hotel to just anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>The Television in the next room was easily heard in my room. I turned off the TV, turned off the lights and got into bed. Then I heard breathing… breathing at a normal rhythm. I was in a room with two double beds, it sounded like someone was in the room with me, just breathing. I turned on the lights, looked around, no one was there. I could still hear the breathing. So it seems there is absolutely no sound proofing in the walls, I believe that the guest in the adjoining room was asleep and nearly snoring, to the point that his respirations were easily heard in my room. It really did not bother me, I went right to sleep, but it could easily be considered very creepy to hear to someone that is a little jumpy. The rates here are great, the service is good, but I would not recommend this hotel to just anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1852910-r222879136-Holiday_Inn_Express_Houston_South_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>222879136</t>
+  </si>
+  <si>
+    <t>08/19/2014</t>
+  </si>
+  <si>
+    <t>Wifi - NOT</t>
+  </si>
+  <si>
+    <t>I stay in HIE around the country and have stayed two other times in this particular location.  However this particular stay was very disappointing.  We were in town for a tournament and the use of our Ipads was a must.  Throughout our entire stay there was no connectivity and this is even after I requested resetting the router of the hotel.  While they were good to be responsive to this request, calling their off site internet provider, it never did work, including their business center on their PC.  Many people upset including a gentleman trying to print boarding passes.  While they upgraded me and I appreciated the gesture, all other aspects of my stay were good.  Clean comfortable room, comfy bed, friendly staff, plenty of other great customer service this issue needs to be addressed or one cannot sell it as 'free and available'.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Houston South - Pearland, responded to this reviewResponded September 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 3, 2014</t>
+  </si>
+  <si>
+    <t>I stay in HIE around the country and have stayed two other times in this particular location.  However this particular stay was very disappointing.  We were in town for a tournament and the use of our Ipads was a must.  Throughout our entire stay there was no connectivity and this is even after I requested resetting the router of the hotel.  While they were good to be responsive to this request, calling their off site internet provider, it never did work, including their business center on their PC.  Many people upset including a gentleman trying to print boarding passes.  While they upgraded me and I appreciated the gesture, all other aspects of my stay were good.  Clean comfortable room, comfy bed, friendly staff, plenty of other great customer service this issue needs to be addressed or one cannot sell it as 'free and available'.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1852910-r222095041-Holiday_Inn_Express_Houston_South_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>222095041</t>
+  </si>
+  <si>
+    <t>08/15/2014</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>Stayed here recently while visiting Houston area. The hotel is very clean, quite, and they have a nice hot breakfast in the morning. The rooms have microwaves, and good size refrigerators. The beds are comfortable. would recommend to stay here</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1852910-r222083915-Holiday_Inn_Express_Houston_South_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>222083915</t>
+  </si>
+  <si>
+    <t>A modern and eco-friendly hotel</t>
+  </si>
+  <si>
+    <t>This hotel is worthy of 3 stars instead of 2.5 for its modern furnishings and nearly 100% LED lighting. All rooms look brand new and have no physical signs of heavy use; the hotel only opened around 2010. Compared to the price of other hotel rooms in Houston, this one is a very good value. It is a good choice if you are visiting Houston and its southern suburbs. This hotel just needs a few improvements to upgrade the star rating and make the stay nearly perfect.
+Nonetheless, transportation from the hotel may be initially hard. If you want to travel south from the hotel, you have to merge with traffic exiting TX-288 N to Beltway 8, then make 2 left turns in a very busy intersection. Both of the freeways (and frontage roads) in the vicinity of the hotel are heavily clogged with traffic in the morning and afternoon rush.
+Back to aspects of the hotel, the rooms are fairly nice and you get a large Phillips HDTV with many local HD channels. Our refrigerator was not working as it should, possibly due to the enclosed cabinet surrounding it not letting air flow through. You might have to keep the cabinet door perceptually open or add ice to keep your food safe. On the plus side, the beds are very comfortable and soft. 
+The rooms are pretty small, so if traveling with a large group, get multiple rooms. There...This hotel is worthy of 3 stars instead of 2.5 for its modern furnishings and nearly 100% LED lighting. All rooms look brand new and have no physical signs of heavy use; the hotel only opened around 2010. Compared to the price of other hotel rooms in Houston, this one is a very good value. It is a good choice if you are visiting Houston and its southern suburbs. This hotel just needs a few improvements to upgrade the star rating and make the stay nearly perfect.Nonetheless, transportation from the hotel may be initially hard. If you want to travel south from the hotel, you have to merge with traffic exiting TX-288 N to Beltway 8, then make 2 left turns in a very busy intersection. Both of the freeways (and frontage roads) in the vicinity of the hotel are heavily clogged with traffic in the morning and afternoon rush.Back to aspects of the hotel, the rooms are fairly nice and you get a large Phillips HDTV with many local HD channels. Our refrigerator was not working as it should, possibly due to the enclosed cabinet surrounding it not letting air flow through. You might have to keep the cabinet door perceptually open or add ice to keep your food safe. On the plus side, the beds are very comfortable and soft. The rooms are pretty small, so if traveling with a large group, get multiple rooms. There is only one slow hydraulic elevator to serve 4 floors, I would recommend you not stay on the top floor and get a room near one of the stairwells (West or East) since it is usually faster to use the stairs from floor 2 or 3. Parking is adequate but there are no trees to shade the vehicles.The public areas of the hotel are very nice; the breakfast lounge area has many different options and the staff are even willing to give you some of the condiments after breakfast hours (butter, honey, etc.) for free. The lobby area has a nice seating area with a television and literature. Next to the front desk, there is a small hotel shop with candy and other small snacks for purchase. Every weekday, there are free cookies and lemonade as part of the afternoon reception, from around 15:00-18:00. Whenever I visited the fitness center, the air conditioner was off and the room smelled stale and sweaty. The business center is rather small and only includes a new HP computer w/ Windows 7 and a LaserJet printer. Faxes and scans have to be done at front desk.Overall, the hotel is a great option if you are going anywhere except the north Houston area. Downtown access is somewhat convenient (rush hour takes 30-45 minutes), but you may want to avoid the most obvious route, TX288. The hotel only needs some easy/quick improvements in the public areas such as the fitness &amp; business centers, and the breakfast area.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>This hotel is worthy of 3 stars instead of 2.5 for its modern furnishings and nearly 100% LED lighting. All rooms look brand new and have no physical signs of heavy use; the hotel only opened around 2010. Compared to the price of other hotel rooms in Houston, this one is a very good value. It is a good choice if you are visiting Houston and its southern suburbs. This hotel just needs a few improvements to upgrade the star rating and make the stay nearly perfect.
+Nonetheless, transportation from the hotel may be initially hard. If you want to travel south from the hotel, you have to merge with traffic exiting TX-288 N to Beltway 8, then make 2 left turns in a very busy intersection. Both of the freeways (and frontage roads) in the vicinity of the hotel are heavily clogged with traffic in the morning and afternoon rush.
+Back to aspects of the hotel, the rooms are fairly nice and you get a large Phillips HDTV with many local HD channels. Our refrigerator was not working as it should, possibly due to the enclosed cabinet surrounding it not letting air flow through. You might have to keep the cabinet door perceptually open or add ice to keep your food safe. On the plus side, the beds are very comfortable and soft. 
+The rooms are pretty small, so if traveling with a large group, get multiple rooms. There...This hotel is worthy of 3 stars instead of 2.5 for its modern furnishings and nearly 100% LED lighting. All rooms look brand new and have no physical signs of heavy use; the hotel only opened around 2010. Compared to the price of other hotel rooms in Houston, this one is a very good value. It is a good choice if you are visiting Houston and its southern suburbs. This hotel just needs a few improvements to upgrade the star rating and make the stay nearly perfect.Nonetheless, transportation from the hotel may be initially hard. If you want to travel south from the hotel, you have to merge with traffic exiting TX-288 N to Beltway 8, then make 2 left turns in a very busy intersection. Both of the freeways (and frontage roads) in the vicinity of the hotel are heavily clogged with traffic in the morning and afternoon rush.Back to aspects of the hotel, the rooms are fairly nice and you get a large Phillips HDTV with many local HD channels. Our refrigerator was not working as it should, possibly due to the enclosed cabinet surrounding it not letting air flow through. You might have to keep the cabinet door perceptually open or add ice to keep your food safe. On the plus side, the beds are very comfortable and soft. The rooms are pretty small, so if traveling with a large group, get multiple rooms. There is only one slow hydraulic elevator to serve 4 floors, I would recommend you not stay on the top floor and get a room near one of the stairwells (West or East) since it is usually faster to use the stairs from floor 2 or 3. Parking is adequate but there are no trees to shade the vehicles.The public areas of the hotel are very nice; the breakfast lounge area has many different options and the staff are even willing to give you some of the condiments after breakfast hours (butter, honey, etc.) for free. The lobby area has a nice seating area with a television and literature. Next to the front desk, there is a small hotel shop with candy and other small snacks for purchase. Every weekday, there are free cookies and lemonade as part of the afternoon reception, from around 15:00-18:00. Whenever I visited the fitness center, the air conditioner was off and the room smelled stale and sweaty. The business center is rather small and only includes a new HP computer w/ Windows 7 and a LaserJet printer. Faxes and scans have to be done at front desk.Overall, the hotel is a great option if you are going anywhere except the north Houston area. Downtown access is somewhat convenient (rush hour takes 30-45 minutes), but you may want to avoid the most obvious route, TX288. The hotel only needs some easy/quick improvements in the public areas such as the fitness &amp; business centers, and the breakfast area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1852910-r217606460-Holiday_Inn_Express_Houston_South_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>217606460</t>
+  </si>
+  <si>
+    <t>07/26/2014</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>Stayed one night using Chase Free Anniversary Night. Had a one room suite, very nice and spacious, nicely arranged bathroom. Very comfortable bed that I slept well on. HUGE TV to watch (I think it was 50+ inches, biggest TV I remember having in a hotel room anyhow). Pretty good continental breakfast with good size breakfast that was not crowded at all. Friendly front desk staff when I checked in. Very refreshing stay</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1852910-r205822393-Holiday_Inn_Express_Houston_South_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>205822393</t>
+  </si>
+  <si>
+    <t>05/16/2014</t>
+  </si>
+  <si>
+    <t>Horrible experience</t>
+  </si>
+  <si>
+    <t>I requested to have my room cleaned at 4:30 pm due to my work/sleep schedule. I was woke up five times on different days at 10:30 am. I was also given a double queen room. I requested a king and was told none were available but I was able to book the room online. Another bad experience that occurred with housekeeping was on an afternoon when I passed the lady assigned to clean my room. I respectfully told her I was leaving and my room hadn't been cleaned. With a cleaning cart in hand she said housekeeping had left for the day. So I said I'll just call the front desk she then followed me into my room and said oh this is my room!!! After I informed the front desk and was on my way out of the room she stated don't forget who cleans your room. I could go on about other situations that weren't handled properly over my two week stay but I think y'all get the point. I will never return.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Houston South - Pearland, responded to this reviewResponded June 8, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 8, 2014</t>
+  </si>
+  <si>
+    <t>I requested to have my room cleaned at 4:30 pm due to my work/sleep schedule. I was woke up five times on different days at 10:30 am. I was also given a double queen room. I requested a king and was told none were available but I was able to book the room online. Another bad experience that occurred with housekeeping was on an afternoon when I passed the lady assigned to clean my room. I respectfully told her I was leaving and my room hadn't been cleaned. With a cleaning cart in hand she said housekeeping had left for the day. So I said I'll just call the front desk she then followed me into my room and said oh this is my room!!! After I informed the front desk and was on my way out of the room she stated don't forget who cleans your room. I could go on about other situations that weren't handled properly over my two week stay but I think y'all get the point. I will never return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1852910-r205141733-Holiday_Inn_Express_Houston_South_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>205141733</t>
+  </si>
+  <si>
+    <t>05/11/2014</t>
+  </si>
+  <si>
+    <t>What happened to customers come first?</t>
+  </si>
+  <si>
+    <t>Hotel was fine...room was clean enough...breakfast was average.  There is only one elevator for the whole hotel.  Two mornings in a row, was basically rushed for the elevator by the cleaning crew with their carts and various contraptions...leaving little room in an already small elevator.  I understand that they have a job to do, but the whole situation bordered on rudeness, and not what I'd expect for this chain.  There needs to be an allowance made so cleaning carts can be kept on floors, and not crowding only elevator MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Houston South - Pearland, responded to this reviewResponded May 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2014</t>
+  </si>
+  <si>
+    <t>Hotel was fine...room was clean enough...breakfast was average.  There is only one elevator for the whole hotel.  Two mornings in a row, was basically rushed for the elevator by the cleaning crew with their carts and various contraptions...leaving little room in an already small elevator.  I understand that they have a job to do, but the whole situation bordered on rudeness, and not what I'd expect for this chain.  There needs to be an allowance made so cleaning carts can be kept on floors, and not crowding only elevator More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1852910-r195589361-Holiday_Inn_Express_Houston_South_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>195589361</t>
+  </si>
+  <si>
+    <t>02/27/2014</t>
+  </si>
+  <si>
+    <t>Nice place / Good location</t>
+  </si>
+  <si>
+    <t>My husband needed a room for one night for a business meeting.  The front desk was helpful and even gave him a small gift bag with a bottle of water &amp; a granola bar.  The room was spacious and clean (located on the 2nd floor).  His only concern is that room locks were being upgraded, and within 15 minutes of checking in the front desk called to say a technician would be coming to change his lock.  Why this wasn't done before he checked in, or why he wasn't put in a room that was already updated was confusing, especially given the hotel was almost empty.  An hour later, the front desk again called to see if everything was okay and if he needed anything else.  Nice, but two calls within the first hour was a little intrusive. Can't complain about the staff being too thoughtful or helpful, though.  The location is convenient - just off Beltway 8 &amp; Hwy 288 South - especially for those visiting Pearland, the Dome/Reliant Stadium area, or the Houston Med Center.  Another bonus: breakfast bar.  Overall, very nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>My husband needed a room for one night for a business meeting.  The front desk was helpful and even gave him a small gift bag with a bottle of water &amp; a granola bar.  The room was spacious and clean (located on the 2nd floor).  His only concern is that room locks were being upgraded, and within 15 minutes of checking in the front desk called to say a technician would be coming to change his lock.  Why this wasn't done before he checked in, or why he wasn't put in a room that was already updated was confusing, especially given the hotel was almost empty.  An hour later, the front desk again called to see if everything was okay and if he needed anything else.  Nice, but two calls within the first hour was a little intrusive. Can't complain about the staff being too thoughtful or helpful, though.  The location is convenient - just off Beltway 8 &amp; Hwy 288 South - especially for those visiting Pearland, the Dome/Reliant Stadium area, or the Houston Med Center.  Another bonus: breakfast bar.  Overall, very nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1852910-r194427828-Holiday_Inn_Express_Houston_South_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>194427828</t>
+  </si>
+  <si>
+    <t>02/17/2014</t>
+  </si>
+  <si>
+    <t>Low Water Pressure</t>
+  </si>
+  <si>
+    <t>The hotel was fine in almost ever category but one. The water pressure was very low. The shower heads are so high its hard to reach to adjust for at least a better setting. I tried to switch rooms but the pressure was the same. The Manager said he has never had this type of complaint before. Now he has. Won't be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>Leo S, Manager at Holiday Inn Express Houston South - Pearland, responded to this reviewResponded February 19, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 19, 2014</t>
+  </si>
+  <si>
+    <t>The hotel was fine in almost ever category but one. The water pressure was very low. The shower heads are so high its hard to reach to adjust for at least a better setting. I tried to switch rooms but the pressure was the same. The Manager said he has never had this type of complaint before. Now he has. Won't be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1852910-r188044776-Holiday_Inn_Express_Houston_South_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>188044776</t>
+  </si>
+  <si>
+    <t>12/19/2013</t>
+  </si>
+  <si>
+    <t>Holiday Inn-Express to No Where</t>
+  </si>
+  <si>
+    <t>Very poor location..............no restaurants/retail shops close by.  It was on an island by itself.  We had not rented a car and needed to take a $20+ taxi cab to do anything.  Continental breakfast was average.  MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Houston South - Pearland, responded to this reviewResponded January 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 3, 2014</t>
+  </si>
+  <si>
+    <t>Very poor location..............no restaurants/retail shops close by.  It was on an island by itself.  We had not rented a car and needed to take a $20+ taxi cab to do anything.  Continental breakfast was average.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1852910-r162756949-Holiday_Inn_Express_Houston_South_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>162756949</t>
+  </si>
+  <si>
+    <t>06/02/2013</t>
+  </si>
+  <si>
+    <t>A very good hotel</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel during our trip to Houston. The main reason for selecting this hotel is two fold: I wanted something that is away from downtown and something that is close to Nasa Space center and Stafford. This hotel is a great buy for the money. This is relatively new hotel with very clean rooms, friendly staff and a good breakfast. Definitely one to consider if you want to stay in South Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>HotelStaff13, Front Desk at Holiday Inn Express Houston South - Pearland, responded to this reviewResponded October 7, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 7, 2013</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel during our trip to Houston. The main reason for selecting this hotel is two fold: I wanted something that is away from downtown and something that is close to Nasa Space center and Stafford. This hotel is a great buy for the money. This is relatively new hotel with very clean rooms, friendly staff and a good breakfast. Definitely one to consider if you want to stay in South Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1852910-r159612333-Holiday_Inn_Express_Houston_South_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>159612333</t>
+  </si>
+  <si>
+    <t>05/04/2013</t>
+  </si>
+  <si>
+    <t>Nice Hotel for the Price</t>
+  </si>
+  <si>
+    <t>We stayed here for our son's basketball tournament.  Therfore, our main goal was a nice clean hotel with comfortable beds and free breakfast.  The rooms were clean and beds comfortable.  The bathroom was also clean and larger than anticipated for this type of hotel.  The service was very friendly.  The morning breakfast was good for the type of hotel.  It had the standard food types.  It was refilled regularly.  The breakfast area was very comfortable and welll decorated.  There was a couch and four arm chairs with a television over a fireplace.  This as a very good value.  Wish our son's team would have done better!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>We stayed here for our son's basketball tournament.  Therfore, our main goal was a nice clean hotel with comfortable beds and free breakfast.  The rooms were clean and beds comfortable.  The bathroom was also clean and larger than anticipated for this type of hotel.  The service was very friendly.  The morning breakfast was good for the type of hotel.  It had the standard food types.  It was refilled regularly.  The breakfast area was very comfortable and welll decorated.  There was a couch and four arm chairs with a television over a fireplace.  This as a very good value.  Wish our son's team would have done better!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1852910-r155796857-Holiday_Inn_Express_Houston_South_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>155796857</t>
+  </si>
+  <si>
+    <t>03/27/2013</t>
+  </si>
+  <si>
+    <t>Average at best!</t>
+  </si>
+  <si>
+    <t>Part of my review is for the priority club members. People who stay in a lot of Hotels expect a little more and mostly when you are in the top tier group . I am a Platinum member. When I arrived the gentleman at the front desk while efficient getting me checked in didn't even acknowledge I was a member at all. No room upgrade, bottle water or snack. I spend roughly 30 nights a year in a Holiday Inn not including other brands that I am a top tier member. 
+Now for the pleasure/leisure visitors. While the hotel in all fairness is nice and the rooms are like any other Holiday inn there is nothing that stands out. I will say that the Internet is rather slow for being so close to Houston. The room next to mine had the TV blaring all night and the front desk was aware for when they brought the receipt and slid under the door you could hear it all the way to elevator. 
+Breakfast was lacking at best. The four or five pieces of each wheat and while bread were stale. Eggs were cold, no cinnamon rolls, banana's were on the brink of being rotten. I have had better breakfast choices at lower tier hotel. 
+This is my second time here and I believe it will be my last. I have stayed at almost all the hotels in this vicinity to include...Part of my review is for the priority club members. People who stay in a lot of Hotels expect a little more and mostly when you are in the top tier group . I am a Platinum member. When I arrived the gentleman at the front desk while efficient getting me checked in didn't even acknowledge I was a member at all. No room upgrade, bottle water or snack. I spend roughly 30 nights a year in a Holiday Inn not including other brands that I am a top tier member. Now for the pleasure/leisure visitors. While the hotel in all fairness is nice and the rooms are like any other Holiday inn there is nothing that stands out. I will say that the Internet is rather slow for being so close to Houston. The room next to mine had the TV blaring all night and the front desk was aware for when they brought the receipt and slid under the door you could hear it all the way to elevator. Breakfast was lacking at best. The four or five pieces of each wheat and while bread were stale. Eggs were cold, no cinnamon rolls, banana's were on the brink of being rotten. I have had better breakfast choices at lower tier hotel. This is my second time here and I believe it will be my last. I have stayed at almost all the hotels in this vicinity to include the Sleep Inn, Springfield Suites, Courtyard and Hilton Garden Inn. The Hilton Garden Inn is probably the best and you will pay about the same as the Holiday Inn.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Houston South - Pearland, responded to this reviewResponded April 15, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 15, 2013</t>
+  </si>
+  <si>
+    <t>Part of my review is for the priority club members. People who stay in a lot of Hotels expect a little more and mostly when you are in the top tier group . I am a Platinum member. When I arrived the gentleman at the front desk while efficient getting me checked in didn't even acknowledge I was a member at all. No room upgrade, bottle water or snack. I spend roughly 30 nights a year in a Holiday Inn not including other brands that I am a top tier member. 
+Now for the pleasure/leisure visitors. While the hotel in all fairness is nice and the rooms are like any other Holiday inn there is nothing that stands out. I will say that the Internet is rather slow for being so close to Houston. The room next to mine had the TV blaring all night and the front desk was aware for when they brought the receipt and slid under the door you could hear it all the way to elevator. 
+Breakfast was lacking at best. The four or five pieces of each wheat and while bread were stale. Eggs were cold, no cinnamon rolls, banana's were on the brink of being rotten. I have had better breakfast choices at lower tier hotel. 
+This is my second time here and I believe it will be my last. I have stayed at almost all the hotels in this vicinity to include...Part of my review is for the priority club members. People who stay in a lot of Hotels expect a little more and mostly when you are in the top tier group . I am a Platinum member. When I arrived the gentleman at the front desk while efficient getting me checked in didn't even acknowledge I was a member at all. No room upgrade, bottle water or snack. I spend roughly 30 nights a year in a Holiday Inn not including other brands that I am a top tier member. Now for the pleasure/leisure visitors. While the hotel in all fairness is nice and the rooms are like any other Holiday inn there is nothing that stands out. I will say that the Internet is rather slow for being so close to Houston. The room next to mine had the TV blaring all night and the front desk was aware for when they brought the receipt and slid under the door you could hear it all the way to elevator. Breakfast was lacking at best. The four or five pieces of each wheat and while bread were stale. Eggs were cold, no cinnamon rolls, banana's were on the brink of being rotten. I have had better breakfast choices at lower tier hotel. This is my second time here and I believe it will be my last. I have stayed at almost all the hotels in this vicinity to include the Sleep Inn, Springfield Suites, Courtyard and Hilton Garden Inn. The Hilton Garden Inn is probably the best and you will pay about the same as the Holiday Inn.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1852910-r144517805-Holiday_Inn_Express_Houston_South_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>144517805</t>
+  </si>
+  <si>
+    <t>11/04/2012</t>
+  </si>
+  <si>
+    <t>Great value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wanted a little get away for my birthday!  It was perfect!  We wanted to visit both Galveston and Houston and it was easy access and had everything close by.  Service was great and the hotel was quite new and well kept!  It was quiet and very clean.  Would stay again!  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1852910-r143351905-Holiday_Inn_Express_Houston_South_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>143351905</t>
+  </si>
+  <si>
+    <t>10/21/2012</t>
+  </si>
+  <si>
+    <t>Very average</t>
+  </si>
+  <si>
+    <t>I am a frequent traveller, so when I travel with my family, I expect a certain professionalism ... We booked a one-night stay for two rooms, specifying the top floor. I called to reconfirm the day before, also requesting a baby crib. We arrived the hotel... Rooms on the ground floor, despite being almost empty. No crib. Asked for top floor... After a snide look, we were given two rooms on the top floor. Asked force crib... Immediate response: none left. We went out for a bit and when we got back a crib was available.So... If you have expectations... Make sure you triple check....</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1852910-r130277639-Holiday_Inn_Express_Houston_South_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>130277639</t>
+  </si>
+  <si>
+    <t>05/20/2012</t>
+  </si>
+  <si>
+    <t>Nice and new</t>
+  </si>
+  <si>
+    <t>We spent 2 nights in this hotel and found it to be clean and welcoming.  We did have a bit of trouble getting to it as it is on a frontage road also make sure you turn right when leaving..it is a one way!   Once there though we had a nice time and an enjoyable breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>Houston_TXManager, Manager at Holiday Inn Express Houston South - Pearland, responded to this reviewResponded August 17, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 17, 2012</t>
+  </si>
+  <si>
+    <t>We spent 2 nights in this hotel and found it to be clean and welcoming.  We did have a bit of trouble getting to it as it is on a frontage road also make sure you turn right when leaving..it is a one way!   Once there though we had a nice time and an enjoyable breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1852910-r127885879-Holiday_Inn_Express_Houston_South_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>127885879</t>
+  </si>
+  <si>
+    <t>04/14/2012</t>
+  </si>
+  <si>
+    <t>GREEEEEAT !!</t>
+  </si>
+  <si>
+    <t>After a horrible experience at hotel indigo, i managed to come here and enjoy myself twice as much. Alexis &amp; Aaron made my stay here at the Holiday Inn Express wonderful. When i plan events i will make sure i come back.</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1852910-r127436765-Holiday_Inn_Express_Houston_South_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>127436765</t>
+  </si>
+  <si>
+    <t>04/07/2012</t>
+  </si>
+  <si>
+    <t>Fantastic, perfect, loved it!</t>
+  </si>
+  <si>
+    <t>Beautiful facility, room was excellent, very clean and new.  The hot bath was wonderful after 13 hours of driving!  We will definately be back.  Have to be here for medical reasons, so comforting to have such a nice place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Beautiful facility, room was excellent, very clean and new.  The hot bath was wonderful after 13 hours of driving!  We will definately be back.  Have to be here for medical reasons, so comforting to have such a nice place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1852910-r126299377-Holiday_Inn_Express_Houston_South_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>126299377</t>
+  </si>
+  <si>
+    <t>03/18/2012</t>
+  </si>
+  <si>
+    <t>Enjoyed my stay</t>
+  </si>
+  <si>
+    <t>i really enjoyed my stay, my room was really nice n staff was great. Aaron at the front desk did a great job with checking me in. He helped me with everything i needed. Just wanted to say thanks to him for making my stay nice.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1852910-r117848322-Holiday_Inn_Express_Houston_South_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>117848322</t>
+  </si>
+  <si>
+    <t>09/08/2011</t>
+  </si>
+  <si>
+    <t>New Clean Hotel  Good Customer Service Next to Pearland</t>
+  </si>
+  <si>
+    <t>I had booked a room at Candlewood Suites in Pearland and was bumped to this hotel because of overbooking.  The Holiday Inn Express is 100 times better than the Candlewood Suites.  The staff is friendly and the hotel is clean.  The rooms at Candlewood Suties have a terrible odor and the general manager was rude.  If you are staying in Pearland stay away from Candlewood Suites and stay at the Holiday Inn Express.  Holiday Inn Express has a nice breakfast and they are close to nice resturants also.  Very reasonable prices for this quality of hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>Houston_TXManager, Manager at Holiday Inn Express Houston South - Pearland, responded to this reviewResponded October 19, 2011</t>
+  </si>
+  <si>
+    <t>Responded October 19, 2011</t>
+  </si>
+  <si>
+    <t>I had booked a room at Candlewood Suites in Pearland and was bumped to this hotel because of overbooking.  The Holiday Inn Express is 100 times better than the Candlewood Suites.  The staff is friendly and the hotel is clean.  The rooms at Candlewood Suties have a terrible odor and the general manager was rude.  If you are staying in Pearland stay away from Candlewood Suites and stay at the Holiday Inn Express.  Holiday Inn Express has a nice breakfast and they are close to nice resturants also.  Very reasonable prices for this quality of hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1852910-r113003891-Holiday_Inn_Express_Houston_South_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>113003891</t>
+  </si>
+  <si>
+    <t>06/12/2011</t>
+  </si>
+  <si>
+    <t>Very new and comfortable</t>
+  </si>
+  <si>
+    <t>This Holiday Inn is completely new, I don't believe it's a remodel. It looks like the typical remodeled Holiday Inn Express, with the brand new floor plan. Everything is genericized.The staff was friendly, at least from what I saw.The complimentary breakfast was hot and fresh at all times. The pool was clean and easily accessible. The free parking lot was spacious.The rooms were great, rather upper class for a holiday inn. Flat screen, beautiful bathroom.Definitely liked it. The only down is obviously the location. While it is easily connected to the freeway, unless you have business to do there, it is in the middle of nowhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>This Holiday Inn is completely new, I don't believe it's a remodel. It looks like the typical remodeled Holiday Inn Express, with the brand new floor plan. Everything is genericized.The staff was friendly, at least from what I saw.The complimentary breakfast was hot and fresh at all times. The pool was clean and easily accessible. The free parking lot was spacious.The rooms were great, rather upper class for a holiday inn. Flat screen, beautiful bathroom.Definitely liked it. The only down is obviously the location. While it is easily connected to the freeway, unless you have business to do there, it is in the middle of nowhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1852910-r112683001-Holiday_Inn_Express_Houston_South_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>112683001</t>
+  </si>
+  <si>
+    <t>06/11/2011</t>
+  </si>
+  <si>
+    <t>The hotel is beautiful and the staff is too!!</t>
+  </si>
+  <si>
+    <t>Awesome!!!!!!!!  After a long day of travel, I finally reached the hotel around 9:30pm; I was amazed at how professional and caring the lady was at check in.  She thanked me several times for being there.  I had the best nights sleep in months!!!  This hotel is new and beautiful!  The staff is friendly and breakfast was the best I've had at any Holiday Inn Express by far!  Kudos, I will be back everytime I'm in Houston!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>Awesome!!!!!!!!  After a long day of travel, I finally reached the hotel around 9:30pm; I was amazed at how professional and caring the lady was at check in.  She thanked me several times for being there.  I had the best nights sleep in months!!!  This hotel is new and beautiful!  The staff is friendly and breakfast was the best I've had at any Holiday Inn Express by far!  Kudos, I will be back everytime I'm in Houston!!!!!More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1310,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1342,2194 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>59869</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>59869</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>59869</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>59869</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" t="s">
+        <v>79</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>80</v>
+      </c>
+      <c r="X5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>59869</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>88</v>
+      </c>
+      <c r="O6" t="s">
+        <v>79</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>89</v>
+      </c>
+      <c r="X6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>59869</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>89</v>
+      </c>
+      <c r="X7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>59869</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J8" t="s">
+        <v>100</v>
+      </c>
+      <c r="K8" t="s">
+        <v>101</v>
+      </c>
+      <c r="L8" t="s">
+        <v>102</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>103</v>
+      </c>
+      <c r="O8" t="s">
+        <v>104</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>105</v>
+      </c>
+      <c r="X8" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>59869</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" t="s">
+        <v>110</v>
+      </c>
+      <c r="K9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L9" t="s">
+        <v>112</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>113</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>114</v>
+      </c>
+      <c r="X9" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>59869</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>118</v>
+      </c>
+      <c r="J10" t="s">
+        <v>119</v>
+      </c>
+      <c r="K10" t="s">
+        <v>120</v>
+      </c>
+      <c r="L10" t="s">
+        <v>121</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>122</v>
+      </c>
+      <c r="O10" t="s">
+        <v>104</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>59869</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>124</v>
+      </c>
+      <c r="J11" t="s">
+        <v>125</v>
+      </c>
+      <c r="K11" t="s">
+        <v>126</v>
+      </c>
+      <c r="L11" t="s">
+        <v>127</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>128</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>59869</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>130</v>
+      </c>
+      <c r="J12" t="s">
+        <v>131</v>
+      </c>
+      <c r="K12" t="s">
+        <v>132</v>
+      </c>
+      <c r="L12" t="s">
+        <v>133</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>128</v>
+      </c>
+      <c r="O12" t="s">
+        <v>79</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>59869</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>134</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>135</v>
+      </c>
+      <c r="J13" t="s">
+        <v>136</v>
+      </c>
+      <c r="K13" t="s">
+        <v>137</v>
+      </c>
+      <c r="L13" t="s">
+        <v>138</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>139</v>
+      </c>
+      <c r="O13" t="s">
+        <v>79</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>59869</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>142</v>
+      </c>
+      <c r="J14" t="s">
+        <v>143</v>
+      </c>
+      <c r="K14" t="s">
+        <v>144</v>
+      </c>
+      <c r="L14" t="s">
+        <v>145</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>146</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>147</v>
+      </c>
+      <c r="X14" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>59869</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>151</v>
+      </c>
+      <c r="J15" t="s">
+        <v>152</v>
+      </c>
+      <c r="K15" t="s">
+        <v>153</v>
+      </c>
+      <c r="L15" t="s">
+        <v>154</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>155</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>59869</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>156</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>157</v>
+      </c>
+      <c r="J16" t="s">
+        <v>152</v>
+      </c>
+      <c r="K16" t="s">
+        <v>158</v>
+      </c>
+      <c r="L16" t="s">
+        <v>159</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>160</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>59869</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>162</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>163</v>
+      </c>
+      <c r="J17" t="s">
+        <v>164</v>
+      </c>
+      <c r="K17" t="s">
+        <v>165</v>
+      </c>
+      <c r="L17" t="s">
+        <v>166</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>155</v>
+      </c>
+      <c r="O17" t="s">
+        <v>63</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>59869</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>167</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>168</v>
+      </c>
+      <c r="J18" t="s">
+        <v>169</v>
+      </c>
+      <c r="K18" t="s">
+        <v>170</v>
+      </c>
+      <c r="L18" t="s">
+        <v>171</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>172</v>
+      </c>
+      <c r="O18" t="s">
+        <v>79</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>173</v>
+      </c>
+      <c r="X18" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>59869</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>176</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>177</v>
+      </c>
+      <c r="J19" t="s">
+        <v>178</v>
+      </c>
+      <c r="K19" t="s">
+        <v>179</v>
+      </c>
+      <c r="L19" t="s">
+        <v>180</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>172</v>
+      </c>
+      <c r="O19" t="s">
+        <v>79</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>181</v>
+      </c>
+      <c r="X19" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>59869</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>184</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>185</v>
+      </c>
+      <c r="J20" t="s">
+        <v>186</v>
+      </c>
+      <c r="K20" t="s">
+        <v>187</v>
+      </c>
+      <c r="L20" t="s">
+        <v>188</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>189</v>
+      </c>
+      <c r="O20" t="s">
+        <v>79</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>59869</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>191</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>192</v>
+      </c>
+      <c r="J21" t="s">
+        <v>193</v>
+      </c>
+      <c r="K21" t="s">
+        <v>194</v>
+      </c>
+      <c r="L21" t="s">
+        <v>195</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>196</v>
+      </c>
+      <c r="O21" t="s">
+        <v>79</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>197</v>
+      </c>
+      <c r="X21" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>59869</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>200</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>201</v>
+      </c>
+      <c r="J22" t="s">
+        <v>202</v>
+      </c>
+      <c r="K22" t="s">
+        <v>203</v>
+      </c>
+      <c r="L22" t="s">
+        <v>204</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>205</v>
+      </c>
+      <c r="O22" t="s">
+        <v>104</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>206</v>
+      </c>
+      <c r="X22" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>59869</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>209</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>210</v>
+      </c>
+      <c r="J23" t="s">
+        <v>211</v>
+      </c>
+      <c r="K23" t="s">
+        <v>212</v>
+      </c>
+      <c r="L23" t="s">
+        <v>213</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>214</v>
+      </c>
+      <c r="O23" t="s">
+        <v>104</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>215</v>
+      </c>
+      <c r="X23" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>59869</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>218</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>219</v>
+      </c>
+      <c r="J24" t="s">
+        <v>220</v>
+      </c>
+      <c r="K24" t="s">
+        <v>221</v>
+      </c>
+      <c r="L24" t="s">
+        <v>222</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>223</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>215</v>
+      </c>
+      <c r="X24" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>59869</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>225</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>226</v>
+      </c>
+      <c r="J25" t="s">
+        <v>227</v>
+      </c>
+      <c r="K25" t="s">
+        <v>228</v>
+      </c>
+      <c r="L25" t="s">
+        <v>229</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>230</v>
+      </c>
+      <c r="O25" t="s">
+        <v>79</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>231</v>
+      </c>
+      <c r="X25" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>59869</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>234</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>235</v>
+      </c>
+      <c r="J26" t="s">
+        <v>236</v>
+      </c>
+      <c r="K26" t="s">
+        <v>237</v>
+      </c>
+      <c r="L26" t="s">
+        <v>238</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>59869</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>239</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>240</v>
+      </c>
+      <c r="J27" t="s">
+        <v>241</v>
+      </c>
+      <c r="K27" t="s">
+        <v>242</v>
+      </c>
+      <c r="L27" t="s">
+        <v>243</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>244</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>59869</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>245</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>246</v>
+      </c>
+      <c r="J28" t="s">
+        <v>247</v>
+      </c>
+      <c r="K28" t="s">
+        <v>248</v>
+      </c>
+      <c r="L28" t="s">
+        <v>249</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>250</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>251</v>
+      </c>
+      <c r="X28" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>59869</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>254</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>255</v>
+      </c>
+      <c r="J29" t="s">
+        <v>256</v>
+      </c>
+      <c r="K29" t="s">
+        <v>257</v>
+      </c>
+      <c r="L29" t="s">
+        <v>258</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>259</v>
+      </c>
+      <c r="O29" t="s">
+        <v>260</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>59869</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>261</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>262</v>
+      </c>
+      <c r="J30" t="s">
+        <v>263</v>
+      </c>
+      <c r="K30" t="s">
+        <v>264</v>
+      </c>
+      <c r="L30" t="s">
+        <v>265</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>259</v>
+      </c>
+      <c r="O30" t="s">
+        <v>79</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>251</v>
+      </c>
+      <c r="X30" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>59869</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>267</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>268</v>
+      </c>
+      <c r="J31" t="s">
+        <v>269</v>
+      </c>
+      <c r="K31" t="s">
+        <v>270</v>
+      </c>
+      <c r="L31" t="s">
+        <v>271</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>59869</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>272</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>273</v>
+      </c>
+      <c r="J32" t="s">
+        <v>274</v>
+      </c>
+      <c r="K32" t="s">
+        <v>275</v>
+      </c>
+      <c r="L32" t="s">
+        <v>276</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>277</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>278</v>
+      </c>
+      <c r="X32" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>59869</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>281</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>282</v>
+      </c>
+      <c r="J33" t="s">
+        <v>283</v>
+      </c>
+      <c r="K33" t="s">
+        <v>284</v>
+      </c>
+      <c r="L33" t="s">
+        <v>285</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>286</v>
+      </c>
+      <c r="O33" t="s">
+        <v>79</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>278</v>
+      </c>
+      <c r="X33" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>59869</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>288</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>289</v>
+      </c>
+      <c r="J34" t="s">
+        <v>290</v>
+      </c>
+      <c r="K34" t="s">
+        <v>291</v>
+      </c>
+      <c r="L34" t="s">
+        <v>292</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>293</v>
+      </c>
+      <c r="O34" t="s">
+        <v>79</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>278</v>
+      </c>
+      <c r="X34" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_335.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_335.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="469">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,87 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/10/2018</t>
+    <t>09/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1852910-r608516688-Holiday_Inn_Express_Houston_South_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>56432</t>
+  </si>
+  <si>
+    <t>1852910</t>
+  </si>
+  <si>
+    <t>608516688</t>
+  </si>
+  <si>
+    <t>08/20/2018</t>
+  </si>
+  <si>
+    <t>Very nice acommodation !</t>
+  </si>
+  <si>
+    <t>Clean and comfortable room, easy  check in and check out, great service, the lady who serves breakfast very friendly.Even there’s a construction on the highway in front of the hotel inside is very quiet.Nice and clean pool, i will stay again on my next trip to Houston area.</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1852910-r597469539-Holiday_Inn_Express_Houston_South_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>597469539</t>
+  </si>
+  <si>
+    <t>07/18/2018</t>
+  </si>
+  <si>
+    <t>Quiet</t>
+  </si>
+  <si>
+    <t>When checking in we did have to wait about 30 min for a room. The room was nice and quiet. Breakfast was good. I did loke that they had coffee 24/7. This was a plus for me!! I would stay at this location again</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1852910-r587612422-Holiday_Inn_Express_Houston_South_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>587612422</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>TV Channels Lacking</t>
+  </si>
+  <si>
+    <t>I have stayed in this hotel many times. It is very nice and the staff very helpful. Normally I do not watch TV because I am busy with work. This trip I had occasion to watch TV and was very disappointed with the channel selection. They had three versions of CNN, MSNBC, and CNBC. But not FOX News. I found that very odd given Fox News has the highest ratings of all the news channels. Makes me wonder about some political bias at the top. They also didn’t carry the Golf Channel and with the US Open being played that detracted from my stay as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Houston South - Pearland, responded to this reviewResponded June 29, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 29, 2018</t>
+  </si>
+  <si>
+    <t>I have stayed in this hotel many times. It is very nice and the staff very helpful. Normally I do not watch TV because I am busy with work. This trip I had occasion to watch TV and was very disappointed with the channel selection. They had three versions of CNN, MSNBC, and CNBC. But not FOX News. I found that very odd given Fox News has the highest ratings of all the news channels. Makes me wonder about some political bias at the top. They also didn’t carry the Golf Channel and with the US Open being played that detracted from my stay as well.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1852910-r575219274-Holiday_Inn_Express_Houston_South_Pearland-Pearland_Texas.html</t>
   </si>
   <si>
-    <t>56432</t>
-  </si>
-  <si>
-    <t>1852910</t>
-  </si>
-  <si>
     <t>575219274</t>
   </si>
   <si>
@@ -177,9 +246,6 @@
     <t>April 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>IHGService, Guest Relations Manager at Holiday Inn Express Houston South - Pearland, responded to this reviewResponded May 8, 2018</t>
   </si>
   <si>
@@ -235,6 +301,60 @@
   </si>
   <si>
     <t>My family and I have stayed at quite a few  Holiday Express hotels. They usually follow a certain standard.  Such as good functioning Wi-Fi and a swimming pool. These two points were sorely lacking at our stay at Holiday Inn Express and Suites Pearland.  During our four night stay we were told repeatedly that the pool needed to be cleaned and was not open, yet they never cleaned it.  We were placed in room 300 which apparently is a room out of reach of their Wi-Fi.  With two teenagers it was very important that we had the free Wi-Fi as  advertised. This was one of the main reasons that I chose this location.  When I reported the lack of Wi-Fi the young man at the front desk stated there's Wi-Fi in the lobby. I told him that we were supposed to have Wi-Fi in the room and it is not working,  but he made no apology for its absence or any remedy, other than to come to the lobby.  I feel like I should be reimbursed for my overage on my cellular data plan! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1852910-r451208996-Holiday_Inn_Express_Houston_South_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>451208996</t>
+  </si>
+  <si>
+    <t>01/11/2017</t>
+  </si>
+  <si>
+    <t>Stay after renovation is complete: hotel is a construction zone.</t>
+  </si>
+  <si>
+    <t>Would have turned around and gone elsewhere if not late for a meeting. On January 10th the lobby was a mess. Debris, dust ventilators, construction materials &amp; workers covered the lobby. You literally have to step over construction debris and dust exhaust venting at front door. Breakfast room was chaotic and cleaned out of most supplies, even the hot water dispensers were empty. The exercise room was not usable, equipment was pushed to far wall and room was filled with construction items. Loud jack hammering/sawing noise. I tried to take the stairs to avoid lobby but stairs were filled with workers on their phones, laying carpet, and debris. On the plus side work finished by 6pm and contractors were diligent about cleaning up before leaving common areas for the night. Our room was very clean and the staff &amp; wifi were excellent.     Should be beautiful when done, until then it is a construction zone.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Houston South - Pearland, responded to this reviewResponded January 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 27, 2017</t>
+  </si>
+  <si>
+    <t>Would have turned around and gone elsewhere if not late for a meeting. On January 10th the lobby was a mess. Debris, dust ventilators, construction materials &amp; workers covered the lobby. You literally have to step over construction debris and dust exhaust venting at front door. Breakfast room was chaotic and cleaned out of most supplies, even the hot water dispensers were empty. The exercise room was not usable, equipment was pushed to far wall and room was filled with construction items. Loud jack hammering/sawing noise. I tried to take the stairs to avoid lobby but stairs were filled with workers on their phones, laying carpet, and debris. On the plus side work finished by 6pm and contractors were diligent about cleaning up before leaving common areas for the night. Our room was very clean and the staff &amp; wifi were excellent.     Should be beautiful when done, until then it is a construction zone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1852910-r351670198-Holiday_Inn_Express_Houston_South_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>351670198</t>
+  </si>
+  <si>
+    <t>02/28/2016</t>
+  </si>
+  <si>
+    <t>Good Stay with Two Limitations</t>
+  </si>
+  <si>
+    <t>Nice new clean hotel. Great access to south side of Houston as it is located at intersection of Beltway 8 and Hwy 288. Plenty of places to eat within 5 minutes in Pearland; also across Hwy 288 from giant Bass Pro Shop. Floors creak and since newer construction, indicates someone cut corners during construction. As with all Holiday Inn Expresses, continental breakfast is consistent with brand. Here are two reasons NOT to stay here if these are important to you: 1. SLOW WI-FI INTERNET. Slower than 95% of other Holiday Inn Expresses. 2. Show heads are mounted at a height of approx 7.5 feet above bottom of tub. I stood under shower head and it came to my finger tips. Any 5'9" and smaller will not be able to adjust the shower head, much less elderly or younger than adults.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Houston South - Pearland, responded to this reviewResponded March 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 14, 2016</t>
+  </si>
+  <si>
+    <t>Nice new clean hotel. Great access to south side of Houston as it is located at intersection of Beltway 8 and Hwy 288. Plenty of places to eat within 5 minutes in Pearland; also across Hwy 288 from giant Bass Pro Shop. Floors creak and since newer construction, indicates someone cut corners during construction. As with all Holiday Inn Expresses, continental breakfast is consistent with brand. Here are two reasons NOT to stay here if these are important to you: 1. SLOW WI-FI INTERNET. Slower than 95% of other Holiday Inn Expresses. 2. Show heads are mounted at a height of approx 7.5 feet above bottom of tub. I stood under shower head and it came to my finger tips. Any 5'9" and smaller will not be able to adjust the shower head, much less elderly or younger than adults.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1852910-r345380355-Holiday_Inn_Express_Houston_South_Pearland-Pearland_Texas.html</t>
@@ -254,12 +374,6 @@
 I also noticed any time I passed the front desk...Stayed at this hotel for 9 nights. Upon check-in the first evening in 1/27, Maddie was not helpful whatsoever nor was she pleasant. Didn't greet me as a platinum member and was not accommodating. I requested a room far from interstate, she informed me they were booked. Inquired if someone would be checking out of one of those rooms in the next day or two, she told me she didn't know and had no way of checking. When I mentioned I may need to look at other local hotels before checking in, she immediately asked if I wanted to cancel my reservation. When I confirmed what she said about having no way of checking, she suddenly had a way of checking after the other other lady working with her came up. I also inquired about my welcome points since didn't ask if I wanted those or a welcome bag. They other lady stated they usually just give the points since that's what most people want. Upon her saying that, she noticed Maddie didn't write my info down to get the points. Had I not asked, I would not have received my points. At first I thought Maddie just lacked customer service skills, but when men checked-in or came to the desk for anything, she was extremely pleasant. Guess she's more focused on flirting with her guests than helping other guests.I also noticed any time I passed the front desk to leave or return throughout my stay, Maddie never said a word. (So not the norm when staying at other IHG hotels. I'm a weekly business traveler.)Then when I noticed I was catching a cold the night of 2/1, I called the front desk to see if they had cough drops. (I wanted to know prior to putting my jacket on and stuff to get some offsite.) The lady who answered said no. As I was headed out to purchase some, I decided to check their little convenience area anyway. What do you know, they had some. I waited to check out, but no one came. There were also people waiting to check-in. They looked frustrated so I inquired if someone was helping them. They said no. So I said "excuse me". Heard a voice saying I'll be with you in a moment. When the lady came to the front desk, (couldn't see her name badge, but she had  ombré  hair and you could tell she was at the back eating because she was still chewing when she came), she quickly says "sorry I told you we didn't have any, I forgot those were there." The next night, I thought to inquire how much was charged to my room that previous night since the lady didn't know what they carried. (I guess it was too much for her to look through the little cut-out from the front desk to check stock and price when she was assisting me.) What do you know, she over charged me. The guy working that night took care of it.About 5:30am the morning of 2/4, I woke up feeling really bad. It was obvious that I was sick because my voice was pretty much gone. Before I could get the words out asking if there was anyway he could bring some cough drops to my door and charge my room, Brent rudely cut me off and said no you'd have to come to the front desk to get anything you need. I understand if they can't leave the desk, but my frustration grew from him rudely cutting me off when I was struggling just to get the words out clearly. Don't get me wrong, the entire staff is not poor at providing good customer service, But those 3 I encountered during my stay were. The lady working 1/30 around 12pm was extremely nice anytime I passed her at the front desk and when my tv stopped working, she took care of it quickly. Also the lady working check-in with Maddie around 6pm 1/27 was very accommodating and helpful. MoreShow less</t>
   </si>
   <si>
-    <t>February 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>IHGService, Guest Relations Manager at Holiday Inn Express Houston South - Pearland, responded to this reviewResponded February 23, 2016</t>
   </si>
   <si>
@@ -316,6 +430,48 @@
     <t>The building is new and beautiful. The upper Management is not so. My parents and i stay over the weekend and my mom got bite by something on her face and arms. i told the front desk what happen and she told my information so that the front office manager could call me on Monday since not managers was there at the time. I call Monday and the manager wasn't in i was told, i call Tuesday and the manager was to busy to take my call asked to speak to the General Manager and he also was busy and unable to take my call. I had to make a doctor appoint for my mom and they are to busy to take a call. If this is how management handle incident that occur on their property i won't want to stay there. If they don't know who to deal with incidents then they are in the wrong line of business or need to go and take some additional class on how to deal with this time of incident. Have not or I don't think they will return my call. Watch out for the unprofessional Manager at this Holiday Inn Express.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1852910-r321238425-Holiday_Inn_Express_Houston_South_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>321238425</t>
+  </si>
+  <si>
+    <t>10/23/2015</t>
+  </si>
+  <si>
+    <t>Bad location</t>
+  </si>
+  <si>
+    <t>Hotel is normal Hoilday Inn Express. Clean, quiet and average at best interiors, bed was worn out and sunk to the middle . Was upgraded to a suite, which comes without a desk instead gives you a 2 person kitchen table. Staff was nice without being overbearing, you get exactly what you expect from IHG. Only real complaint is the location, right at the corner of the beltway and 288, its impossible to get out in the morning and go west, or north. Going to dinner you have to go through 3 lights to get turned around. I doubt I would ever stay again as its just an inconvenient location.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Houston South - Pearland, responded to this reviewResponded November 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 7, 2015</t>
+  </si>
+  <si>
+    <t>Hotel is normal Hoilday Inn Express. Clean, quiet and average at best interiors, bed was worn out and sunk to the middle . Was upgraded to a suite, which comes without a desk instead gives you a 2 person kitchen table. Staff was nice without being overbearing, you get exactly what you expect from IHG. Only real complaint is the location, right at the corner of the beltway and 288, its impossible to get out in the morning and go west, or north. Going to dinner you have to go through 3 lights to get turned around. I doubt I would ever stay again as its just an inconvenient location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1852910-r320602905-Holiday_Inn_Express_Houston_South_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>320602905</t>
+  </si>
+  <si>
+    <t>10/21/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business trip </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed here one night. This hotel is fairly new. Check in went smooth even though there were 12 of us checking in at one time. Room was very clean. Beds are really soft and comfy. We didn't eat breakfast just because we had a late meeting and slept in but they have the typical Holiday Inn breakfast. Bass Pro Shop and restaurants  across the freeway. Takes 2 minutes to get there. Very nice place and I would recommend. </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1852910-r300498688-Holiday_Inn_Express_Houston_South_Pearland-Pearland_Texas.html</t>
   </si>
   <si>
@@ -391,6 +547,48 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1852910-r274734214-Holiday_Inn_Express_Houston_South_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>274734214</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>Very nice once you find it</t>
+  </si>
+  <si>
+    <t>we stayed here over Memorial day w/e for 3 nights.  The property is very nice inside and out.       bigger than usual b-fast room.   The problem is finding hotel.  it is listed as Pearland. We put that in GPS and came to another HI actually in Pearland.  This property is actually in HARRIS County - Houston.    Then you can only enter from north bound service road off  TX RT 288.   We missed where to exit and it was a 10 mile trip to get back about to enter the hotel.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1852910-r271532426-Holiday_Inn_Express_Houston_South_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>271532426</t>
+  </si>
+  <si>
+    <t>05/12/2015</t>
+  </si>
+  <si>
+    <t>Slipping</t>
+  </si>
+  <si>
+    <t>I stay in this hotel 3 of 4 weeks per month since January.  I am now looking for a new hotel as I see the overall conditions slipping.Room 423 never seems to have hot water ... I have been placed here several times.I have had dirty bathrooms on several occassions.  Forgotten finish to the room such as missing pillows on the bed.  Dirty carpets are a regular thing - perhaps a few more deep cleanings are in order?The breakfast area is inconsistant - empty coffee dispensers, empty hot water, and empty orange juice; not always missing ... but its a monte carlo of potential.Staff is generally great ... only one bad apple who has a 'no reponse' attitude.Be careful in the parking lots too ... I have been there on 2 occassions where people complained of break in's.WiFi is a pain!  Good luck using it ... up, down, slow to connect, and dominant over 4G!They need more attention to detail!MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Houston South - Pearland, responded to this reviewResponded June 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 1, 2015</t>
+  </si>
+  <si>
+    <t>I stay in this hotel 3 of 4 weeks per month since January.  I am now looking for a new hotel as I see the overall conditions slipping.Room 423 never seems to have hot water ... I have been placed here several times.I have had dirty bathrooms on several occassions.  Forgotten finish to the room such as missing pillows on the bed.  Dirty carpets are a regular thing - perhaps a few more deep cleanings are in order?The breakfast area is inconsistant - empty coffee dispensers, empty hot water, and empty orange juice; not always missing ... but its a monte carlo of potential.Staff is generally great ... only one bad apple who has a 'no reponse' attitude.Be careful in the parking lots too ... I have been there on 2 occassions where people complained of break in's.WiFi is a pain!  Good luck using it ... up, down, slow to connect, and dominant over 4G!They need more attention to detail!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1852910-r257658661-Holiday_Inn_Express_Houston_South_Pearland-Pearland_Texas.html</t>
   </si>
   <si>
@@ -443,6 +641,45 @@
   </si>
   <si>
     <t>The Television in the next room was easily heard in my room. I turned off the TV, turned off the lights and got into bed. Then I heard breathing… breathing at a normal rhythm. I was in a room with two double beds, it sounded like someone was in the room with me, just breathing. I turned on the lights, looked around, no one was there. I could still hear the breathing. So it seems there is absolutely no sound proofing in the walls, I believe that the guest in the adjoining room was asleep and nearly snoring, to the point that his respirations were easily heard in my room. It really did not bother me, I went right to sleep, but it could easily be considered very creepy to hear to someone that is a little jumpy. The rates here are great, the service is good, but I would not recommend this hotel to just anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1852910-r242113832-Holiday_Inn_Express_Houston_South_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>242113832</t>
+  </si>
+  <si>
+    <t>11/30/2014</t>
+  </si>
+  <si>
+    <t>ANOTHER HAPPY CUSTOMER!!!!</t>
+  </si>
+  <si>
+    <t>HONEY, STOP THE CAR!!  DON' T LOOK ANY FURTHER!! THIS IS "THE PLACE" TO STAY!!This by far is one of THE BEST places we have ever stayed!! Calvin at the front desk has got that "PIZZAZ" personality that makes you feel like "Welcome Home". He also takes the time to give you detailed information to help you find a nice place to eat in the surrounding area.  This hotel deserves a 10 Star rating for cleanliness, quietness, clean air quality, and exceptional front desk hosts/hostesses like Calvin at check in and Micah at check out. The breakfast  was very good with numerous choices to select from.  When we are in the area again, we will definitely choose this hotel again without any hesitations. Thank you for a job exceptionally done.Charles &amp; Millie DavisArlington, TexasNovember 2014MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>HONEY, STOP THE CAR!!  DON' T LOOK ANY FURTHER!! THIS IS "THE PLACE" TO STAY!!This by far is one of THE BEST places we have ever stayed!! Calvin at the front desk has got that "PIZZAZ" personality that makes you feel like "Welcome Home". He also takes the time to give you detailed information to help you find a nice place to eat in the surrounding area.  This hotel deserves a 10 Star rating for cleanliness, quietness, clean air quality, and exceptional front desk hosts/hostesses like Calvin at check in and Micah at check out. The breakfast  was very good with numerous choices to select from.  When we are in the area again, we will definitely choose this hotel again without any hesitations. Thank you for a job exceptionally done.Charles &amp; Millie DavisArlington, TexasNovember 2014More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1852910-r240776652-Holiday_Inn_Express_Houston_South_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>240776652</t>
+  </si>
+  <si>
+    <t>11/20/2014</t>
+  </si>
+  <si>
+    <t>Front desk was the best part about this hotel.</t>
+  </si>
+  <si>
+    <t>The front desk crew on all shifts was very kind and the best part about this hotel. It was very dirty and outdated. Shower had very low shower pressure and made it nearly impossible to wash. My room was never fully cleaned and never vaccumed. When I arrived it had been after cleaning was done and good and what appeared to be confetti was all over the hall in front of my room. Granola all over the floor inside. The first day I was there the maid was outside my door having a very loud personal conversation laughing and making jokes at 7am. I was located directly across from the hotel and janitor closet so all hours I heard people coming and going and it was very hard to sleep before 1130 and woken at 630.MoreShow less</t>
+  </si>
+  <si>
+    <t>The front desk crew on all shifts was very kind and the best part about this hotel. It was very dirty and outdated. Shower had very low shower pressure and made it nearly impossible to wash. My room was never fully cleaned and never vaccumed. When I arrived it had been after cleaning was done and good and what appeared to be confetti was all over the hall in front of my room. Granola all over the floor inside. The first day I was there the maid was outside my door having a very loud personal conversation laughing and making jokes at 7am. I was located directly across from the hotel and janitor closet so all hours I heard people coming and going and it was very hard to sleep before 1130 and woken at 630.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1852910-r222879136-Holiday_Inn_Express_Houston_South_Pearland-Pearland_Texas.html</t>
@@ -514,6 +751,61 @@
 The rooms are pretty small, so if traveling with a large group, get multiple rooms. There...This hotel is worthy of 3 stars instead of 2.5 for its modern furnishings and nearly 100% LED lighting. All rooms look brand new and have no physical signs of heavy use; the hotel only opened around 2010. Compared to the price of other hotel rooms in Houston, this one is a very good value. It is a good choice if you are visiting Houston and its southern suburbs. This hotel just needs a few improvements to upgrade the star rating and make the stay nearly perfect.Nonetheless, transportation from the hotel may be initially hard. If you want to travel south from the hotel, you have to merge with traffic exiting TX-288 N to Beltway 8, then make 2 left turns in a very busy intersection. Both of the freeways (and frontage roads) in the vicinity of the hotel are heavily clogged with traffic in the morning and afternoon rush.Back to aspects of the hotel, the rooms are fairly nice and you get a large Phillips HDTV with many local HD channels. Our refrigerator was not working as it should, possibly due to the enclosed cabinet surrounding it not letting air flow through. You might have to keep the cabinet door perceptually open or add ice to keep your food safe. On the plus side, the beds are very comfortable and soft. The rooms are pretty small, so if traveling with a large group, get multiple rooms. There is only one slow hydraulic elevator to serve 4 floors, I would recommend you not stay on the top floor and get a room near one of the stairwells (West or East) since it is usually faster to use the stairs from floor 2 or 3. Parking is adequate but there are no trees to shade the vehicles.The public areas of the hotel are very nice; the breakfast lounge area has many different options and the staff are even willing to give you some of the condiments after breakfast hours (butter, honey, etc.) for free. The lobby area has a nice seating area with a television and literature. Next to the front desk, there is a small hotel shop with candy and other small snacks for purchase. Every weekday, there are free cookies and lemonade as part of the afternoon reception, from around 15:00-18:00. Whenever I visited the fitness center, the air conditioner was off and the room smelled stale and sweaty. The business center is rather small and only includes a new HP computer w/ Windows 7 and a LaserJet printer. Faxes and scans have to be done at front desk.Overall, the hotel is a great option if you are going anywhere except the north Houston area. Downtown access is somewhat convenient (rush hour takes 30-45 minutes), but you may want to avoid the most obvious route, TX288. The hotel only needs some easy/quick improvements in the public areas such as the fitness &amp; business centers, and the breakfast area.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1852910-r221193956-Holiday_Inn_Express_Houston_South_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>221193956</t>
+  </si>
+  <si>
+    <t>08/11/2014</t>
+  </si>
+  <si>
+    <t>Missing Tablet</t>
+  </si>
+  <si>
+    <t>On July 25, 2014 I confirmed hotel reservations at the Holiday Inn Express hotel located at
+ 13931 S Freeway Houston, (Pearland). My fiancé met me at the hotel upon my check-in. WE went to the room (202) and I changed for dinner and later returned. 
+ On 26 July 2014 I went to the front desk and extended my stay another night to attend a friend’s family reunion about 25 miles from the hotel. Unprepared for the event I left the hotel around 11am (or so) and headed out to the stores. I returned to the hotel just about 1245pm (or so) changed clothes and left about 130pm. Up until this point I was very pleased with the front desk assistance ie: extending my reservation, giving my directions to the stores ect. I returned to the hotel around 930pm after a wonderful day with family and friends.  As I prepared to pack my suite case for my departure Sunday morning and back to Fort Worth TX, I discovered my NEW Tablet was missing!!!!!!!! I called down to the front desk to advise the agent on duty and was treated like a second class citizen!!! Mr Anderson (agent on duty and IN CHARGE) asked me the following questions: What time did you leave the hotel? What time are you checking out?  He quickly dismissed our conversation to attend to the new guest that had arrived to the hotel. He advised me that...On July 25, 2014 I confirmed hotel reservations at the Holiday Inn Express hotel located at 13931 S Freeway Houston, (Pearland). My fiancé met me at the hotel upon my check-in. WE went to the room (202) and I changed for dinner and later returned.  On 26 July 2014 I went to the front desk and extended my stay another night to attend a friend’s family reunion about 25 miles from the hotel. Unprepared for the event I left the hotel around 11am (or so) and headed out to the stores. I returned to the hotel just about 1245pm (or so) changed clothes and left about 130pm. Up until this point I was very pleased with the front desk assistance ie: extending my reservation, giving my directions to the stores ect. I returned to the hotel around 930pm after a wonderful day with family and friends.  As I prepared to pack my suite case for my departure Sunday morning and back to Fort Worth TX, I discovered my NEW Tablet was missing!!!!!!!! I called down to the front desk to advise the agent on duty and was treated like a second class citizen!!! Mr Anderson (agent on duty and IN CHARGE) asked me the following questions: What time did you leave the hotel? What time are you checking out?  He quickly dismissed our conversation to attend to the new guest that had arrived to the hotel. He advised me that I could call him back or come down to the front desk (really?).  I was advised that a manager MIGHT be in when she gets out of church on the day I was leaving or I could wait for the manager to call me on Monday.  I was not comfortable with either loose option; I called Pearland police and filed a report. Officer XXXX came and took my report. WE went to the room and he looked around the room as well my personal belongings. I also completed the hotel report as requested by the hotel manager and documented the case number.I called CUSTOMER RELATIONS 28 July 2014 where they took my report and said they would follow-up with the hotel and call me back. The manager Mr Leo called me 29 July 2014 and asked me that I give him a chance to review the tapes and he'll get back to me. After ME calling and following-up with the last call that I made and the last due date I was given I finally got an answer.....after I called him back!!!!! 31 July 2014 Mr Leo advised me of the following: "Mrs XXXXXXX, I've reviewed the tapes and the only person I see going in and out of your room is YOU". I asked "are you sure"? He said "yes". Now, one or MORE things happen here. 1) HE DID NOT WATCH THE VIDEO 2) HE LOOKED AT THE WRONG ROOM or 3) EVERY PERSON BESIDES ME AND INCLUDING THE POLICE OFFICER THAT ENTERED THAT ROOM WAS GHOST!!!!! I immediately called the customer relations number and advised them of what he said. Now they were at the point of escalating my case to the next level of "investigation" because Mr Leo had NOT responded to their request to investigate my claim. 8 August 2014 finally a call/voicemail to ME from CUSTOMER RELATIONS that said the following: “Ms XXXXXX I'm sorry to inform you that Mr Leo has said he will NOT be filing a claim with the insurance company to replace your tablet”. “The hotel is NOT responsible for you leaving valuable items in the room”. “There’s is a safe on site and that I should have left it in there if it was of any value to me”. “Ms XXXXX you will need to follow-up with the police department for any further assistance”. “Thank you and have a great day”!!!! ……. News flash: Everything I own is of VALUE!!!Instead of I having me initial/sign/ and give my credit card, I should have been advised that even though you put your DO NOT DISTURB sign on the door (as I do at any hotel I stay at) the EMPLOYEES CAN and WILL enter your room and STEAL your VALUABLES. It’s not so much the value of the tablet, or the amount of pictures and important stuff that was loaded on it.  That level of VIOLATION is IMMEASURABLE!!!!!!I CURRENTLY work in the travel industry over 17yrs now.  I work for one of the LARGEST corporate travel companies as well as one the LARGEST DFW headquartered airlines. I’ve stayed in countless hotel chains both domestic and international. This is the first EVER!!!! I will make it my campaign to NOT BOOK or STAY at another HOTEL in the IHG chain. Thank you Holiday Inn Express, you have taught me a very valuable lesson and I will make sure no one else that I encounter both personal and business has to learn the same lesson.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Houston South - Pearland, responded to this reviewResponded September 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 4, 2014</t>
+  </si>
+  <si>
+    <t>On July 25, 2014 I confirmed hotel reservations at the Holiday Inn Express hotel located at
+ 13931 S Freeway Houston, (Pearland). My fiancé met me at the hotel upon my check-in. WE went to the room (202) and I changed for dinner and later returned. 
+ On 26 July 2014 I went to the front desk and extended my stay another night to attend a friend’s family reunion about 25 miles from the hotel. Unprepared for the event I left the hotel around 11am (or so) and headed out to the stores. I returned to the hotel just about 1245pm (or so) changed clothes and left about 130pm. Up until this point I was very pleased with the front desk assistance ie: extending my reservation, giving my directions to the stores ect. I returned to the hotel around 930pm after a wonderful day with family and friends.  As I prepared to pack my suite case for my departure Sunday morning and back to Fort Worth TX, I discovered my NEW Tablet was missing!!!!!!!! I called down to the front desk to advise the agent on duty and was treated like a second class citizen!!! Mr Anderson (agent on duty and IN CHARGE) asked me the following questions: What time did you leave the hotel? What time are you checking out?  He quickly dismissed our conversation to attend to the new guest that had arrived to the hotel. He advised me that...On July 25, 2014 I confirmed hotel reservations at the Holiday Inn Express hotel located at 13931 S Freeway Houston, (Pearland). My fiancé met me at the hotel upon my check-in. WE went to the room (202) and I changed for dinner and later returned.  On 26 July 2014 I went to the front desk and extended my stay another night to attend a friend’s family reunion about 25 miles from the hotel. Unprepared for the event I left the hotel around 11am (or so) and headed out to the stores. I returned to the hotel just about 1245pm (or so) changed clothes and left about 130pm. Up until this point I was very pleased with the front desk assistance ie: extending my reservation, giving my directions to the stores ect. I returned to the hotel around 930pm after a wonderful day with family and friends.  As I prepared to pack my suite case for my departure Sunday morning and back to Fort Worth TX, I discovered my NEW Tablet was missing!!!!!!!! I called down to the front desk to advise the agent on duty and was treated like a second class citizen!!! Mr Anderson (agent on duty and IN CHARGE) asked me the following questions: What time did you leave the hotel? What time are you checking out?  He quickly dismissed our conversation to attend to the new guest that had arrived to the hotel. He advised me that I could call him back or come down to the front desk (really?).  I was advised that a manager MIGHT be in when she gets out of church on the day I was leaving or I could wait for the manager to call me on Monday.  I was not comfortable with either loose option; I called Pearland police and filed a report. Officer XXXX came and took my report. WE went to the room and he looked around the room as well my personal belongings. I also completed the hotel report as requested by the hotel manager and documented the case number.I called CUSTOMER RELATIONS 28 July 2014 where they took my report and said they would follow-up with the hotel and call me back. The manager Mr Leo called me 29 July 2014 and asked me that I give him a chance to review the tapes and he'll get back to me. After ME calling and following-up with the last call that I made and the last due date I was given I finally got an answer.....after I called him back!!!!! 31 July 2014 Mr Leo advised me of the following: "Mrs XXXXXXX, I've reviewed the tapes and the only person I see going in and out of your room is YOU". I asked "are you sure"? He said "yes". Now, one or MORE things happen here. 1) HE DID NOT WATCH THE VIDEO 2) HE LOOKED AT THE WRONG ROOM or 3) EVERY PERSON BESIDES ME AND INCLUDING THE POLICE OFFICER THAT ENTERED THAT ROOM WAS GHOST!!!!! I immediately called the customer relations number and advised them of what he said. Now they were at the point of escalating my case to the next level of "investigation" because Mr Leo had NOT responded to their request to investigate my claim. 8 August 2014 finally a call/voicemail to ME from CUSTOMER RELATIONS that said the following: “Ms XXXXXX I'm sorry to inform you that Mr Leo has said he will NOT be filing a claim with the insurance company to replace your tablet”. “The hotel is NOT responsible for you leaving valuable items in the room”. “There’s is a safe on site and that I should have left it in there if it was of any value to me”. “Ms XXXXX you will need to follow-up with the police department for any further assistance”. “Thank you and have a great day”!!!! ……. News flash: Everything I own is of VALUE!!!Instead of I having me initial/sign/ and give my credit card, I should have been advised that even though you put your DO NOT DISTURB sign on the door (as I do at any hotel I stay at) the EMPLOYEES CAN and WILL enter your room and STEAL your VALUABLES. It’s not so much the value of the tablet, or the amount of pictures and important stuff that was loaded on it.  That level of VIOLATION is IMMEASURABLE!!!!!!I CURRENTLY work in the travel industry over 17yrs now.  I work for one of the LARGEST corporate travel companies as well as one the LARGEST DFW headquartered airlines. I’ve stayed in countless hotel chains both domestic and international. This is the first EVER!!!! I will make it my campaign to NOT BOOK or STAY at another HOTEL in the IHG chain. Thank you Holiday Inn Express, you have taught me a very valuable lesson and I will make sure no one else that I encounter both personal and business has to learn the same lesson.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1852910-r219919315-Holiday_Inn_Express_Houston_South_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>219919315</t>
+  </si>
+  <si>
+    <t>08/05/2014</t>
+  </si>
+  <si>
+    <t>Noisy and far from Houston</t>
+  </si>
+  <si>
+    <t>I bought this hotel through hotwire and I regret it.  Far from Houston and with few things near it.I was able to hear the bathroom from the next room.  Also I saw disgusting situations at the hotel cafeteria.  (another guest burping)A tip… near the hotel you can find an excellent "pupuseria"  It is a small restaurant, but the pupusas are great!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Houston South - Pearland, responded to this reviewResponded August 20, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 20, 2014</t>
+  </si>
+  <si>
+    <t>I bought this hotel through hotwire and I regret it.  Far from Houston and with few things near it.I was able to hear the bathroom from the next room.  Also I saw disgusting situations at the hotel cafeteria.  (another guest burping)A tip… near the hotel you can find an excellent "pupuseria"  It is a small restaurant, but the pupusas are great!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1852910-r217606460-Holiday_Inn_Express_Houston_South_Pearland-Pearland_Texas.html</t>
   </si>
   <si>
@@ -580,6 +872,48 @@
     <t>Hotel was fine...room was clean enough...breakfast was average.  There is only one elevator for the whole hotel.  Two mornings in a row, was basically rushed for the elevator by the cleaning crew with their carts and various contraptions...leaving little room in an already small elevator.  I understand that they have a job to do, but the whole situation bordered on rudeness, and not what I'd expect for this chain.  There needs to be an allowance made so cleaning carts can be kept on floors, and not crowding only elevator More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1852910-r200454740-Holiday_Inn_Express_Houston_South_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>200454740</t>
+  </si>
+  <si>
+    <t>04/09/2014</t>
+  </si>
+  <si>
+    <t>Pearland Holiday Inn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our stay in Pearland was excellent. The hotel was very clean, the front desk clerk was very nice, the room was clean and the it was very quite. I would recommend this hotel. I would recommend this hotel.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1852910-r199307532-Holiday_Inn_Express_Houston_South_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>199307532</t>
+  </si>
+  <si>
+    <t>03/30/2014</t>
+  </si>
+  <si>
+    <t>Holiday inn pearl and</t>
+  </si>
+  <si>
+    <t>Was at this hotel in early March2014 for business reasons.The hotel is a bit remote but well maintained and clean.there is a breakfast included with room .Across the street is a family run Mexican diner with good food at fair prices.The pool is outside so was closed when I was there but it looked well maintained.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Houston South - Pearland, responded to this reviewResponded April 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 14, 2014</t>
+  </si>
+  <si>
+    <t>Was at this hotel in early March2014 for business reasons.The hotel is a bit remote but well maintained and clean.there is a breakfast included with room .Across the street is a family run Mexican diner with good food at fair prices.The pool is outside so was closed when I was there but it looked well maintained.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1852910-r195589361-Holiday_Inn_Express_Houston_South_Pearland-Pearland_Texas.html</t>
   </si>
   <si>
@@ -655,6 +989,57 @@
     <t>Very poor location..............no restaurants/retail shops close by.  It was on an island by itself.  We had not rented a car and needed to take a $20+ taxi cab to do anything.  Continental breakfast was average.  More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1852910-r186293354-Holiday_Inn_Express_Houston_South_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>186293354</t>
+  </si>
+  <si>
+    <t>11/29/2013</t>
+  </si>
+  <si>
+    <t>Disappointing 2nd visit</t>
+  </si>
+  <si>
+    <t>We stayed here a couple of years ago and never considered staying else where when we returned to the area, so we prepaid and thought it would be great. It's disappointing, after a couple of em's we had requested 2 room near each other, so the kids aren't too far away, we were given rooms 2 floors apart, then told there was only one room left on the floor. It has just been painted, so it reeked. So we moved down stairs. The room is clean but still smells in the corridor of smoke. Yuk. Love the Bath &amp; Body Works toiletries, but only 3 towels. Staff are obviously not happy as everything is an effort. For example I asked of there were pancakes at breakfast and was told the machine stopped working a couple of days ago, but she could see if it would work! Surely you would get the thing fixed when it stopped? We also had to search the hotel for a staff member when we checked in, he was off at the other end of the place. The evening receptionist read a book all night and you had to interrupt her if you needed anything. Just wasn't up to scratch. MoreShow less</t>
+  </si>
+  <si>
+    <t>HotelStaff13, Front Desk at Holiday Inn Express Houston South - Pearland, responded to this reviewResponded December 2, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 2, 2013</t>
+  </si>
+  <si>
+    <t>We stayed here a couple of years ago and never considered staying else where when we returned to the area, so we prepaid and thought it would be great. It's disappointing, after a couple of em's we had requested 2 room near each other, so the kids aren't too far away, we were given rooms 2 floors apart, then told there was only one room left on the floor. It has just been painted, so it reeked. So we moved down stairs. The room is clean but still smells in the corridor of smoke. Yuk. Love the Bath &amp; Body Works toiletries, but only 3 towels. Staff are obviously not happy as everything is an effort. For example I asked of there were pancakes at breakfast and was told the machine stopped working a couple of days ago, but she could see if it would work! Surely you would get the thing fixed when it stopped? We also had to search the hotel for a staff member when we checked in, he was off at the other end of the place. The evening receptionist read a book all night and you had to interrupt her if you needed anything. Just wasn't up to scratch. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1852910-r179793461-Holiday_Inn_Express_Houston_South_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>179793461</t>
+  </si>
+  <si>
+    <t>10/05/2013</t>
+  </si>
+  <si>
+    <t>An oasis of pleasantness!</t>
+  </si>
+  <si>
+    <t>I stayed here for 2 nights of a 33 night roadtrip. The hotel is a fair few miles out of Houston (and this is reflected in the price - hence my choice), but only a couple of minutes drive from main routes to get there and not too far from the Space Center. My room was modern, quiet and clean, and the bed was super-comfortable. The staff were friendly (by Houston standards!) and check-in was swift (they'd run out of complimentary goodie bags, but offered me the choice of a drink and snack from the little shop adjacent to the front desk - many thanks). Breakfast was good - but as long as I can have cereal and toast I'm happy with that. Would I stay here again? Yes, although the probability of me revisiting this part of the US is next to zero. For those who don't HAVE to visit Houston (i.e. you're on a pleasure trip rather than a business trip) don't bother - both on the road and on foot it is the antithesis of the "friendly Texan" image they like to perpetuate. I spent two days wishing the hours away until I could return to this hotel or get out of the city. However, if you have to visit, I recommend this hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>HotelStaff13, Front Desk at Holiday Inn Express Houston South - Pearland, responded to this reviewResponded October 7, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 7, 2013</t>
+  </si>
+  <si>
+    <t>I stayed here for 2 nights of a 33 night roadtrip. The hotel is a fair few miles out of Houston (and this is reflected in the price - hence my choice), but only a couple of minutes drive from main routes to get there and not too far from the Space Center. My room was modern, quiet and clean, and the bed was super-comfortable. The staff were friendly (by Houston standards!) and check-in was swift (they'd run out of complimentary goodie bags, but offered me the choice of a drink and snack from the little shop adjacent to the front desk - many thanks). Breakfast was good - but as long as I can have cereal and toast I'm happy with that. Would I stay here again? Yes, although the probability of me revisiting this part of the US is next to zero. For those who don't HAVE to visit Houston (i.e. you're on a pleasure trip rather than a business trip) don't bother - both on the road and on foot it is the antithesis of the "friendly Texan" image they like to perpetuate. I spent two days wishing the hours away until I could return to this hotel or get out of the city. However, if you have to visit, I recommend this hotel!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1852910-r162756949-Holiday_Inn_Express_Houston_South_Pearland-Pearland_Texas.html</t>
   </si>
   <si>
@@ -671,12 +1056,6 @@
   </si>
   <si>
     <t>May 2013</t>
-  </si>
-  <si>
-    <t>HotelStaff13, Front Desk at Holiday Inn Express Houston South - Pearland, responded to this reviewResponded October 7, 2013</t>
-  </si>
-  <si>
-    <t>Responded October 7, 2013</t>
   </si>
   <si>
     <t>We stayed at this hotel during our trip to Houston. The main reason for selecting this hotel is two fold: I wanted something that is away from downtown and something that is close to Nasa Space center and Stafford. This hotel is a great buy for the money. This is relatively new hotel with very clean rooms, friendly staff and a good breakfast. Definitely one to consider if you want to stay in South Houston.More</t>
@@ -736,6 +1115,45 @@
 This is my second time here and I believe it will be my last. I have stayed at almost all the hotels in this vicinity to include...Part of my review is for the priority club members. People who stay in a lot of Hotels expect a little more and mostly when you are in the top tier group . I am a Platinum member. When I arrived the gentleman at the front desk while efficient getting me checked in didn't even acknowledge I was a member at all. No room upgrade, bottle water or snack. I spend roughly 30 nights a year in a Holiday Inn not including other brands that I am a top tier member. Now for the pleasure/leisure visitors. While the hotel in all fairness is nice and the rooms are like any other Holiday inn there is nothing that stands out. I will say that the Internet is rather slow for being so close to Houston. The room next to mine had the TV blaring all night and the front desk was aware for when they brought the receipt and slid under the door you could hear it all the way to elevator. Breakfast was lacking at best. The four or five pieces of each wheat and while bread were stale. Eggs were cold, no cinnamon rolls, banana's were on the brink of being rotten. I have had better breakfast choices at lower tier hotel. This is my second time here and I believe it will be my last. I have stayed at almost all the hotels in this vicinity to include the Sleep Inn, Springfield Suites, Courtyard and Hilton Garden Inn. The Hilton Garden Inn is probably the best and you will pay about the same as the Holiday Inn.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1852910-r149340310-Holiday_Inn_Express_Houston_South_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>149340310</t>
+  </si>
+  <si>
+    <t>01/10/2013</t>
+  </si>
+  <si>
+    <t>Can't beat the value.</t>
+  </si>
+  <si>
+    <t>Me and my boyfriend recently stayed here for a little getaway trip. I've always had great experiences at holiday inn express hotels in the past so I figured this would be no different. When we arrived we were greeted by a really nice employee at the front desk who was helpful and more friendly than most front desk clerks. Now I had booked this hotel using hiexpress.com which is the hotel Chain's personal website. I booked a king suite. When we got up to the room it was a double bed room. We had gotten their around 9pm so we were tired and didn't feel like trying to fix the situation that night because at least we had somewhere to sleep. Then I went to use the restroom and their was a golf-sized lint ball with hair included in the toilet just sitting there. That was probably the most disgusting thing I have ever experienced in a hotel. And just as a side note the carpet didn't appear to have been vacuumed at all. Now the beds were really comfortable and we did get a good night rest. The next morning I checked out and the hotel clerk asked how my stay was and I'm really not one to complain because I work in hospitality myself and understand how it is. However I felt that my stay was not up to par like it had been the numerous other times...Me and my boyfriend recently stayed here for a little getaway trip. I've always had great experiences at holiday inn express hotels in the past so I figured this would be no different. When we arrived we were greeted by a really nice employee at the front desk who was helpful and more friendly than most front desk clerks. Now I had booked this hotel using hiexpress.com which is the hotel Chain's personal website. I booked a king suite. When we got up to the room it was a double bed room. We had gotten their around 9pm so we were tired and didn't feel like trying to fix the situation that night because at least we had somewhere to sleep. Then I went to use the restroom and their was a golf-sized lint ball with hair included in the toilet just sitting there. That was probably the most disgusting thing I have ever experienced in a hotel. And just as a side note the carpet didn't appear to have been vacuumed at all. Now the beds were really comfortable and we did get a good night rest. The next morning I checked out and the hotel clerk asked how my stay was and I'm really not one to complain because I work in hospitality myself and understand how it is. However I felt that my stay was not up to par like it had been the numerous other times I have stayed at HI Express. I informed her about my problems and she seemed surprised but very understanding. She said they would be making adjustments to my credit card for my unpleasant stay. She said they would be in touch with me but I still haven't received a call and my credit card charge has not changed. And by the way they didn't have cinnamon rolls at breakfast! Which I always look forward to while staying at this hotel. The service was great though so I would maybe not stay at this hotel in particular again because it wasn't as clean as I would prefer and I didn't get the room I had booked but definitely with another HI express. However the price was a steal! MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Houston South - Pearland, responded to this reviewResponded August 14, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 14, 2013</t>
+  </si>
+  <si>
+    <t>Me and my boyfriend recently stayed here for a little getaway trip. I've always had great experiences at holiday inn express hotels in the past so I figured this would be no different. When we arrived we were greeted by a really nice employee at the front desk who was helpful and more friendly than most front desk clerks. Now I had booked this hotel using hiexpress.com which is the hotel Chain's personal website. I booked a king suite. When we got up to the room it was a double bed room. We had gotten their around 9pm so we were tired and didn't feel like trying to fix the situation that night because at least we had somewhere to sleep. Then I went to use the restroom and their was a golf-sized lint ball with hair included in the toilet just sitting there. That was probably the most disgusting thing I have ever experienced in a hotel. And just as a side note the carpet didn't appear to have been vacuumed at all. Now the beds were really comfortable and we did get a good night rest. The next morning I checked out and the hotel clerk asked how my stay was and I'm really not one to complain because I work in hospitality myself and understand how it is. However I felt that my stay was not up to par like it had been the numerous other times...Me and my boyfriend recently stayed here for a little getaway trip. I've always had great experiences at holiday inn express hotels in the past so I figured this would be no different. When we arrived we were greeted by a really nice employee at the front desk who was helpful and more friendly than most front desk clerks. Now I had booked this hotel using hiexpress.com which is the hotel Chain's personal website. I booked a king suite. When we got up to the room it was a double bed room. We had gotten their around 9pm so we were tired and didn't feel like trying to fix the situation that night because at least we had somewhere to sleep. Then I went to use the restroom and their was a golf-sized lint ball with hair included in the toilet just sitting there. That was probably the most disgusting thing I have ever experienced in a hotel. And just as a side note the carpet didn't appear to have been vacuumed at all. Now the beds were really comfortable and we did get a good night rest. The next morning I checked out and the hotel clerk asked how my stay was and I'm really not one to complain because I work in hospitality myself and understand how it is. However I felt that my stay was not up to par like it had been the numerous other times I have stayed at HI Express. I informed her about my problems and she seemed surprised but very understanding. She said they would be making adjustments to my credit card for my unpleasant stay. She said they would be in touch with me but I still haven't received a call and my credit card charge has not changed. And by the way they didn't have cinnamon rolls at breakfast! Which I always look forward to while staying at this hotel. The service was great though so I would maybe not stay at this hotel in particular again because it wasn't as clean as I would prefer and I didn't get the room I had booked but definitely with another HI express. However the price was a steal! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1852910-r148022734-Holiday_Inn_Express_Houston_South_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>148022734</t>
+  </si>
+  <si>
+    <t>12/25/2012</t>
+  </si>
+  <si>
+    <t>Very Nice Place</t>
+  </si>
+  <si>
+    <t>We stayed here for Christmas while visiting my brother.  It is a nice clean hotel.   Seems to be relatively new.      The room was nice, breakfast was good.  There where not many people staying so it was almost like you had the place to yourself.  We will stay here again.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1852910-r144517805-Holiday_Inn_Express_Houston_South_Pearland-Pearland_Texas.html</t>
   </si>
   <si>
@@ -796,6 +1214,45 @@
     <t>We spent 2 nights in this hotel and found it to be clean and welcoming.  We did have a bit of trouble getting to it as it is on a frontage road also make sure you turn right when leaving..it is a one way!   Once there though we had a nice time and an enjoyable breakfast.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1852910-r129264259-Holiday_Inn_Express_Houston_South_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>129264259</t>
+  </si>
+  <si>
+    <t>05/02/2012</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>Stayed in a spacious king suite.  The room was spacious, very clean, and the hotel seemed very well maintained.  Great location.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed in a spacious king suite.  The room was spacious, very clean, and the hotel seemed very well maintained.  Great location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1852910-r128550187-Holiday_Inn_Express_Houston_South_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>128550187</t>
+  </si>
+  <si>
+    <t>04/24/2012</t>
+  </si>
+  <si>
+    <t>Great Check inn Experience and overall service</t>
+  </si>
+  <si>
+    <t>I had a great stay at this hotel the staff was really helpful, warm adn welcoming, Specially Kurt. always brought us the simplest thing needed. my family and i had a great time there and will be coming back soon.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>I had a great stay at this hotel the staff was really helpful, warm adn welcoming, Specially Kurt. always brought us the simplest thing needed. my family and i had a great time there and will be coming back soon.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1852910-r127885879-Holiday_Inn_Express_Houston_South_Pearland-Pearland_Texas.html</t>
   </si>
   <si>
@@ -850,6 +1307,52 @@
     <t>i really enjoyed my stay, my room was really nice n staff was great. Aaron at the front desk did a great job with checking me in. He helped me with everything i needed. Just wanted to say thanks to him for making my stay nice.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1852910-r123668656-Holiday_Inn_Express_Houston_South_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>123668656</t>
+  </si>
+  <si>
+    <t>01/26/2012</t>
+  </si>
+  <si>
+    <t>Outstanding new property!</t>
+  </si>
+  <si>
+    <t>Traveling through South Houston on business and came across this brand new property that is strategically located on South Freeway and near lots of shopping. Its easy in, easy out. The property is spotless. The service is impeccable. And Janet did a great job selling its attributes for my future visits to the area. Best of all, you get all of this at a great price. And don't forget the free breakfast...This place is great!! I WILL return!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>Traveling through South Houston on business and came across this brand new property that is strategically located on South Freeway and near lots of shopping. Its easy in, easy out. The property is spotless. The service is impeccable. And Janet did a great job selling its attributes for my future visits to the area. Best of all, you get all of this at a great price. And don't forget the free breakfast...This place is great!! I WILL return!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1852910-r122398695-Holiday_Inn_Express_Houston_South_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>122398695</t>
+  </si>
+  <si>
+    <t>01/02/2012</t>
+  </si>
+  <si>
+    <t>Week break in Houston</t>
+  </si>
+  <si>
+    <t>We spent a week at this new Holiday Inn Express in late November and early December 2011. I was a bit sceptical as my last experience in a Holiday Inn Express (in London UK) had been a disastor. It was an easy hotel to see but not so easy to get to, we drove past it 5 times, south then north on the 288, east then west on the Sam Houston, then south again on the 288! Access to the Hotel is only from a road that runs parallell to the 288 north. It was so annoying seeing it but not being able to get to it, but we managed in the end! Plenty of car parking when we finally arrived
+The greeting at the receptionist could not have been more friendly, we explained the problems we had arriving, the receptionist was aware of the problem, we were not the first to have struggled. She was very friendly thanked us for choosing the hotel and gave us useful hints as to somewhere near to eat.
+The room was pretty good nice comfortable bed and flat screen TV, the free wireless signal was good and I never had a problem connecting to the internet. After a couple of days we had a problem with the plug in the washbasin, despite telling them every day it was never sorted out (apparently the maintenance guy was away) it was not horrendous but it...We spent a week at this new Holiday Inn Express in late November and early December 2011. I was a bit sceptical as my last experience in a Holiday Inn Express (in London UK) had been a disastor. It was an easy hotel to see but not so easy to get to, we drove past it 5 times, south then north on the 288, east then west on the Sam Houston, then south again on the 288! Access to the Hotel is only from a road that runs parallell to the 288 north. It was so annoying seeing it but not being able to get to it, but we managed in the end! Plenty of car parking when we finally arrivedThe greeting at the receptionist could not have been more friendly, we explained the problems we had arriving, the receptionist was aware of the problem, we were not the first to have struggled. She was very friendly thanked us for choosing the hotel and gave us useful hints as to somewhere near to eat.The room was pretty good nice comfortable bed and flat screen TV, the free wireless signal was good and I never had a problem connecting to the internet. After a couple of days we had a problem with the plug in the washbasin, despite telling them every day it was never sorted out (apparently the maintenance guy was away) it was not horrendous but it should have been sorted out. Room was well serviced everyday, the hotel has a safety deposit system as reception which we used, no problem. Breakfast was the normal fare, along with my favourite cinamon buns. Tee and coffee was always availableThere were plenty of places to eat about 2 miles south TGI Fridays, Olive Garden, Texas Roadhouse and Red Lobster were our choices.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>We spent a week at this new Holiday Inn Express in late November and early December 2011. I was a bit sceptical as my last experience in a Holiday Inn Express (in London UK) had been a disastor. It was an easy hotel to see but not so easy to get to, we drove past it 5 times, south then north on the 288, east then west on the Sam Houston, then south again on the 288! Access to the Hotel is only from a road that runs parallell to the 288 north. It was so annoying seeing it but not being able to get to it, but we managed in the end! Plenty of car parking when we finally arrived
+The greeting at the receptionist could not have been more friendly, we explained the problems we had arriving, the receptionist was aware of the problem, we were not the first to have struggled. She was very friendly thanked us for choosing the hotel and gave us useful hints as to somewhere near to eat.
+The room was pretty good nice comfortable bed and flat screen TV, the free wireless signal was good and I never had a problem connecting to the internet. After a couple of days we had a problem with the plug in the washbasin, despite telling them every day it was never sorted out (apparently the maintenance guy was away) it was not horrendous but it...We spent a week at this new Holiday Inn Express in late November and early December 2011. I was a bit sceptical as my last experience in a Holiday Inn Express (in London UK) had been a disastor. It was an easy hotel to see but not so easy to get to, we drove past it 5 times, south then north on the 288, east then west on the Sam Houston, then south again on the 288! Access to the Hotel is only from a road that runs parallell to the 288 north. It was so annoying seeing it but not being able to get to it, but we managed in the end! Plenty of car parking when we finally arrivedThe greeting at the receptionist could not have been more friendly, we explained the problems we had arriving, the receptionist was aware of the problem, we were not the first to have struggled. She was very friendly thanked us for choosing the hotel and gave us useful hints as to somewhere near to eat.The room was pretty good nice comfortable bed and flat screen TV, the free wireless signal was good and I never had a problem connecting to the internet. After a couple of days we had a problem with the plug in the washbasin, despite telling them every day it was never sorted out (apparently the maintenance guy was away) it was not horrendous but it should have been sorted out. Room was well serviced everyday, the hotel has a safety deposit system as reception which we used, no problem. Breakfast was the normal fare, along with my favourite cinamon buns. Tee and coffee was always availableThere were plenty of places to eat about 2 miles south TGI Fridays, Olive Garden, Texas Roadhouse and Red Lobster were our choices.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1852910-r117848322-Holiday_Inn_Express_Houston_South_Pearland-Pearland_Texas.html</t>
   </si>
   <si>
@@ -917,6 +1420,33 @@
   </si>
   <si>
     <t>Awesome!!!!!!!!  After a long day of travel, I finally reached the hotel around 9:30pm; I was amazed at how professional and caring the lady was at check in.  She thanked me several times for being there.  I had the best nights sleep in months!!!  This hotel is new and beautiful!  The staff is friendly and breakfast was the best I've had at any Holiday Inn Express by far!  Kudos, I will be back everytime I'm in Houston!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d1852910-r104655431-Holiday_Inn_Express_Houston_South_Pearland-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>104655431</t>
+  </si>
+  <si>
+    <t>04/19/2011</t>
+  </si>
+  <si>
+    <t>I would rather sleep in my car than give Holiday Inn Pearland my business</t>
+  </si>
+  <si>
+    <t>The hotel rooms are new and comfortable but the customer service is the reason why I am writing this review.  I reserved several rooms for my guests to stay at after my wedding.  The remaining rooms were cancelled the day before per hotel instruction.  After my wedding I was informed that I had been charged for the 10 remaining rooms!!  I'll let you do the math.  After several attempts to speak to the manager, I spoke with Misty once and she ended the call by saying, 'this conversation is over' and hung up.  Needless to say, the matter has not been resolved.  My guests had complaints of the staff's unprofessionalism and charges that were not under my group rate.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>Houston_TXManager, Manager at Holiday Inn Express Houston South - Pearland, responded to this reviewResponded August 15, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 15, 2012</t>
+  </si>
+  <si>
+    <t>The hotel rooms are new and comfortable but the customer service is the reason why I am writing this review.  I reserved several rooms for my guests to stay at after my wedding.  The remaining rooms were cancelled the day before per hotel instruction.  After my wedding I was informed that I had been charged for the 10 remaining rooms!!  I'll let you do the math.  After several attempts to speak to the manager, I spoke with Misty once and she ended the call by saying, 'this conversation is over' and hung up.  Needless to say, the matter has not been resolved.  My guests had complaints of the staff's unprofessionalism and charges that were not under my group rate.More</t>
   </si>
 </sst>
 </file>
@@ -1451,7 +1981,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1468,14 +1998,10 @@
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>54</v>
-      </c>
-      <c r="X2" t="s">
-        <v>55</v>
-      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -1491,34 +2017,34 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
       </c>
-      <c r="K3" t="s">
+      <c r="O3" t="s">
         <v>60</v>
-      </c>
-      <c r="L3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M3" t="n">
-        <v>3</v>
-      </c>
-      <c r="N3" t="s">
-        <v>62</v>
-      </c>
-      <c r="O3" t="s">
-        <v>63</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1532,7 +2058,7 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -1548,34 +2074,34 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
         <v>64</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>65</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
         <v>66</v>
       </c>
-      <c r="K4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" t="s">
-        <v>68</v>
-      </c>
-      <c r="M4" t="n">
-        <v>3</v>
-      </c>
-      <c r="N4" t="s">
-        <v>69</v>
-      </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1587,13 +2113,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="X4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
@@ -1609,34 +2135,34 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
         <v>73</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>74</v>
       </c>
-      <c r="J5" t="s">
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
         <v>75</v>
       </c>
-      <c r="K5" t="s">
-        <v>76</v>
-      </c>
-      <c r="L5" t="s">
-        <v>77</v>
-      </c>
-      <c r="M5" t="n">
-        <v>3</v>
-      </c>
-      <c r="N5" t="s">
-        <v>78</v>
-      </c>
       <c r="O5" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1648,13 +2174,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="X5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Y5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
@@ -1670,56 +2196,48 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" t="s">
         <v>83</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
         <v>84</v>
       </c>
-      <c r="J6" t="s">
+      <c r="O6" t="s">
         <v>85</v>
       </c>
-      <c r="K6" t="s">
-        <v>86</v>
-      </c>
-      <c r="L6" t="s">
-        <v>87</v>
-      </c>
-      <c r="M6" t="n">
-        <v>2</v>
-      </c>
-      <c r="N6" t="s">
-        <v>88</v>
-      </c>
-      <c r="O6" t="s">
-        <v>79</v>
-      </c>
       <c r="P6" t="s"/>
-      <c r="Q6" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>3</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>89</v>
-      </c>
-      <c r="X6" t="s">
-        <v>90</v>
-      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
@@ -1735,7 +2253,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -1744,22 +2262,22 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O7" t="s">
         <v>53</v>
@@ -1774,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="X7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Y7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
@@ -1796,56 +2314,56 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" t="s">
         <v>98</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="L8" t="s">
         <v>99</v>
       </c>
-      <c r="J8" t="s">
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
         <v>100</v>
       </c>
-      <c r="K8" t="s">
-        <v>101</v>
-      </c>
-      <c r="L8" t="s">
-        <v>102</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="s">
-        <v>103</v>
-      </c>
       <c r="O8" t="s">
-        <v>104</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="X8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="Y8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9">
@@ -1861,52 +2379,56 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" t="s">
+        <v>106</v>
+      </c>
+      <c r="K9" t="s">
+        <v>107</v>
+      </c>
+      <c r="L9" t="s">
         <v>108</v>
-      </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
-        <v>109</v>
-      </c>
-      <c r="J9" t="s">
-        <v>110</v>
-      </c>
-      <c r="K9" t="s">
-        <v>111</v>
-      </c>
-      <c r="L9" t="s">
-        <v>112</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
-      </c>
-      <c r="P9" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="X9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Y9" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10">
@@ -1922,54 +2444,52 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>114</v>
+      </c>
+      <c r="J10" t="s">
+        <v>115</v>
+      </c>
+      <c r="K10" t="s">
+        <v>116</v>
+      </c>
+      <c r="L10" t="s">
         <v>117</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
-        <v>118</v>
-      </c>
-      <c r="J10" t="s">
-        <v>119</v>
-      </c>
-      <c r="K10" t="s">
-        <v>120</v>
-      </c>
-      <c r="L10" t="s">
-        <v>121</v>
-      </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="O10" t="s">
-        <v>104</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>3</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>4</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>118</v>
+      </c>
+      <c r="X10" t="s">
+        <v>119</v>
+      </c>
       <c r="Y10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
@@ -1985,52 +2505,56 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>121</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>122</v>
+      </c>
+      <c r="J11" t="s">
         <v>123</v>
       </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="K11" t="s">
         <v>124</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>125</v>
       </c>
-      <c r="K11" t="s">
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
         <v>126</v>
       </c>
-      <c r="L11" t="s">
-        <v>127</v>
-      </c>
-      <c r="M11" t="n">
-        <v>5</v>
-      </c>
-      <c r="N11" t="s">
-        <v>128</v>
-      </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
       <c r="R11" t="s"/>
-      <c r="S11" t="n">
-        <v>5</v>
-      </c>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
+      <c r="W11" t="s">
+        <v>127</v>
+      </c>
+      <c r="X11" t="s">
+        <v>128</v>
+      </c>
       <c r="Y11" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12">
@@ -2046,7 +2570,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2055,25 +2579,25 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O12" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2084,10 +2608,14 @@
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
+      <c r="W12" t="s">
+        <v>127</v>
+      </c>
+      <c r="X12" t="s">
+        <v>128</v>
+      </c>
       <c r="Y12" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13">
@@ -2103,7 +2631,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2112,45 +2640,47 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="J13" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K13" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O13" t="s">
-        <v>79</v>
-      </c>
-      <c r="P13" t="n">
-        <v>4</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P13" t="s"/>
       <c r="Q13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
+      <c r="W13" t="s">
+        <v>142</v>
+      </c>
+      <c r="X13" t="s">
+        <v>143</v>
+      </c>
       <c r="Y13" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14">
@@ -2166,54 +2696,46 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>146</v>
+      </c>
+      <c r="J14" t="s">
+        <v>147</v>
+      </c>
+      <c r="K14" t="s">
+        <v>148</v>
+      </c>
+      <c r="L14" t="s">
+        <v>149</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
         <v>141</v>
       </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" t="s">
-        <v>142</v>
-      </c>
-      <c r="J14" t="s">
-        <v>143</v>
-      </c>
-      <c r="K14" t="s">
-        <v>144</v>
-      </c>
-      <c r="L14" t="s">
-        <v>145</v>
-      </c>
-      <c r="M14" t="n">
-        <v>3</v>
-      </c>
-      <c r="N14" t="s">
-        <v>146</v>
-      </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P14" t="s"/>
-      <c r="Q14" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>3</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s">
-        <v>147</v>
-      </c>
-      <c r="X14" t="s">
-        <v>148</v>
-      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
       <c r="Y14" t="s">
         <v>149</v>
       </c>
@@ -2252,33 +2774,35 @@
         <v>154</v>
       </c>
       <c r="M15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N15" t="s">
         <v>155</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
-      </c>
-      <c r="P15" t="s"/>
-      <c r="Q15" t="n">
-        <v>5</v>
-      </c>
-      <c r="R15" t="n">
-        <v>5</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
+      <c r="W15" t="s">
+        <v>157</v>
+      </c>
+      <c r="X15" t="s">
+        <v>158</v>
+      </c>
       <c r="Y15" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16">
@@ -2294,7 +2818,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2303,22 +2827,22 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="J16" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="K16" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L16" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="O16" t="s">
         <v>53</v>
@@ -2326,20 +2850,20 @@
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
-      <c r="S16" t="n">
-        <v>4</v>
-      </c>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>4</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
+      <c r="W16" t="s">
+        <v>166</v>
+      </c>
+      <c r="X16" t="s">
+        <v>167</v>
+      </c>
       <c r="Y16" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17">
@@ -2355,7 +2879,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2364,37 +2888,37 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="J17" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="K17" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="L17" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="O17" t="s">
-        <v>63</v>
+        <v>156</v>
       </c>
       <c r="P17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2402,7 +2926,7 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18">
@@ -2418,7 +2942,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2427,43 +2951,45 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="J18" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="K18" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="L18" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="O18" t="s">
-        <v>79</v>
+        <v>156</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
-      <c r="R18" t="s"/>
-      <c r="S18" t="s"/>
+      <c r="R18" t="n">
+        <v>2</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s">
-        <v>173</v>
-      </c>
-      <c r="X18" t="s">
-        <v>174</v>
-      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19">
@@ -2479,7 +3005,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2488,43 +3014,49 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="J19" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="K19" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="L19" t="s">
+        <v>185</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
         <v>180</v>
       </c>
-      <c r="M19" t="n">
+      <c r="O19" t="s">
+        <v>60</v>
+      </c>
+      <c r="P19" t="n">
         <v>2</v>
       </c>
-      <c r="N19" t="s">
-        <v>172</v>
-      </c>
-      <c r="O19" t="s">
-        <v>79</v>
-      </c>
-      <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
-      <c r="R19" t="s"/>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="X19" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Y19" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20">
@@ -2540,7 +3072,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2549,41 +3081,35 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="J20" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="K20" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="L20" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="O20" t="s">
-        <v>79</v>
-      </c>
-      <c r="P20" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>4</v>
-      </c>
-      <c r="R20" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
       <c r="S20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2591,7 +3117,7 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21">
@@ -2607,7 +3133,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2616,25 +3142,25 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="J21" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="K21" t="s">
+        <v>198</v>
+      </c>
+      <c r="L21" t="s">
+        <v>199</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
         <v>194</v>
       </c>
-      <c r="L21" t="s">
-        <v>195</v>
-      </c>
-      <c r="M21" t="n">
-        <v>3</v>
-      </c>
-      <c r="N21" t="s">
-        <v>196</v>
-      </c>
       <c r="O21" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -2645,12 +3171,8 @@
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s">
-        <v>197</v>
-      </c>
-      <c r="X21" t="s">
-        <v>198</v>
-      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
       <c r="Y21" t="s">
         <v>199</v>
       </c>
@@ -2689,41 +3211,33 @@
         <v>204</v>
       </c>
       <c r="M22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N22" t="s">
         <v>205</v>
       </c>
       <c r="O22" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="P22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q22" t="n">
-        <v>3</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1</v>
-      </c>
-      <c r="S22" t="n">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s">
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
         <v>206</v>
-      </c>
-      <c r="X22" t="s">
-        <v>207</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="23">
@@ -2739,62 +3253,54 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
+        <v>207</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>208</v>
+      </c>
+      <c r="J23" t="s">
         <v>209</v>
       </c>
-      <c r="G23" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="K23" t="s">
         <v>210</v>
       </c>
-      <c r="J23" t="s">
+      <c r="L23" t="s">
         <v>211</v>
       </c>
-      <c r="K23" t="s">
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
         <v>212</v>
       </c>
-      <c r="L23" t="s">
-        <v>213</v>
-      </c>
-      <c r="M23" t="n">
-        <v>4</v>
-      </c>
-      <c r="N23" t="s">
-        <v>214</v>
-      </c>
       <c r="O23" t="s">
-        <v>104</v>
+        <v>156</v>
       </c>
       <c r="P23" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>4</v>
-      </c>
-      <c r="R23" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
       <c r="S23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s">
-        <v>215</v>
-      </c>
-      <c r="X23" t="s">
-        <v>216</v>
-      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24">
@@ -2810,35 +3316,31 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
+        <v>214</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>215</v>
+      </c>
+      <c r="J24" t="s">
+        <v>216</v>
+      </c>
+      <c r="K24" t="s">
+        <v>217</v>
+      </c>
+      <c r="L24" t="s">
         <v>218</v>
       </c>
-      <c r="G24" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" t="s">
-        <v>219</v>
-      </c>
-      <c r="J24" t="s">
-        <v>220</v>
-      </c>
-      <c r="K24" t="s">
-        <v>221</v>
-      </c>
-      <c r="L24" t="s">
-        <v>222</v>
-      </c>
       <c r="M24" t="n">
-        <v>4</v>
-      </c>
-      <c r="N24" t="s">
-        <v>223</v>
-      </c>
-      <c r="O24" t="s">
-        <v>53</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
       <c r="P24" t="n">
         <v>4</v>
       </c>
@@ -2846,26 +3348,22 @@
         <v>4</v>
       </c>
       <c r="R24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s">
-        <v>215</v>
-      </c>
-      <c r="X24" t="s">
-        <v>216</v>
-      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25">
@@ -2881,7 +3379,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -2890,38 +3388,32 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="J25" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="K25" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="L25" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="O25" t="s">
-        <v>79</v>
-      </c>
-      <c r="P25" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
       <c r="Q25" t="n">
         <v>4</v>
       </c>
-      <c r="R25" t="n">
-        <v>4</v>
-      </c>
-      <c r="S25" t="n">
-        <v>4</v>
-      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
         <v>3</v>
@@ -2930,13 +3422,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="X25" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="Y25" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26">
@@ -2952,46 +3444,46 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
+        <v>229</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>230</v>
+      </c>
+      <c r="J26" t="s">
+        <v>231</v>
+      </c>
+      <c r="K26" t="s">
+        <v>232</v>
+      </c>
+      <c r="L26" t="s">
+        <v>233</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
         <v>234</v>
       </c>
-      <c r="G26" t="s">
-        <v>46</v>
-      </c>
-      <c r="H26" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" t="s">
-        <v>235</v>
-      </c>
-      <c r="J26" t="s">
-        <v>236</v>
-      </c>
-      <c r="K26" t="s">
-        <v>237</v>
-      </c>
-      <c r="L26" t="s">
-        <v>238</v>
-      </c>
-      <c r="M26" t="n">
-        <v>4</v>
-      </c>
-      <c r="N26" t="s"/>
-      <c r="O26" t="s"/>
-      <c r="P26" t="n">
-        <v>5</v>
-      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
       <c r="Q26" t="n">
         <v>5</v>
       </c>
       <c r="R26" t="n">
-        <v>4</v>
-      </c>
-      <c r="S26" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2999,7 +3491,7 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27">
@@ -3015,31 +3507,31 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
+        <v>235</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>236</v>
+      </c>
+      <c r="J27" t="s">
+        <v>231</v>
+      </c>
+      <c r="K27" t="s">
+        <v>237</v>
+      </c>
+      <c r="L27" t="s">
+        <v>238</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
         <v>239</v>
-      </c>
-      <c r="G27" t="s">
-        <v>46</v>
-      </c>
-      <c r="H27" t="s">
-        <v>47</v>
-      </c>
-      <c r="I27" t="s">
-        <v>240</v>
-      </c>
-      <c r="J27" t="s">
-        <v>241</v>
-      </c>
-      <c r="K27" t="s">
-        <v>242</v>
-      </c>
-      <c r="L27" t="s">
-        <v>243</v>
-      </c>
-      <c r="M27" t="n">
-        <v>3</v>
-      </c>
-      <c r="N27" t="s">
-        <v>244</v>
       </c>
       <c r="O27" t="s">
         <v>53</v>
@@ -3047,16 +3539,20 @@
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
       <c r="R27" t="s"/>
-      <c r="S27" t="s"/>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
       <c r="T27" t="s"/>
-      <c r="U27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="28">
@@ -3072,62 +3568,58 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
+        <v>241</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>242</v>
+      </c>
+      <c r="J28" t="s">
+        <v>243</v>
+      </c>
+      <c r="K28" t="s">
+        <v>244</v>
+      </c>
+      <c r="L28" t="s">
         <v>245</v>
       </c>
-      <c r="G28" t="s">
-        <v>46</v>
-      </c>
-      <c r="H28" t="s">
-        <v>47</v>
-      </c>
-      <c r="I28" t="s">
-        <v>246</v>
-      </c>
-      <c r="J28" t="s">
-        <v>247</v>
-      </c>
-      <c r="K28" t="s">
-        <v>248</v>
-      </c>
-      <c r="L28" t="s">
-        <v>249</v>
-      </c>
       <c r="M28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="O28" t="s">
         <v>53</v>
       </c>
       <c r="P28" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>5</v>
-      </c>
-      <c r="R28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
         <v>3</v>
-      </c>
-      <c r="S28" t="n">
-        <v>5</v>
       </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="X28" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="Y28" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29">
@@ -3143,58 +3635,56 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
+        <v>249</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>250</v>
+      </c>
+      <c r="J29" t="s">
+        <v>251</v>
+      </c>
+      <c r="K29" t="s">
+        <v>252</v>
+      </c>
+      <c r="L29" t="s">
+        <v>253</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
         <v>254</v>
       </c>
-      <c r="G29" t="s">
-        <v>46</v>
-      </c>
-      <c r="H29" t="s">
-        <v>47</v>
-      </c>
-      <c r="I29" t="s">
-        <v>255</v>
-      </c>
-      <c r="J29" t="s">
-        <v>256</v>
-      </c>
-      <c r="K29" t="s">
-        <v>257</v>
-      </c>
-      <c r="L29" t="s">
-        <v>258</v>
-      </c>
-      <c r="M29" t="n">
-        <v>5</v>
-      </c>
-      <c r="N29" t="s">
-        <v>259</v>
-      </c>
       <c r="O29" t="s">
-        <v>260</v>
-      </c>
-      <c r="P29" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P29" t="s"/>
       <c r="Q29" t="n">
-        <v>5</v>
-      </c>
-      <c r="R29" t="n">
-        <v>5</v>
-      </c>
-      <c r="S29" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
+      <c r="W29" t="s">
+        <v>255</v>
+      </c>
+      <c r="X29" t="s">
+        <v>256</v>
+      </c>
       <c r="Y29" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30">
@@ -3210,34 +3700,34 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
+        <v>258</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>259</v>
+      </c>
+      <c r="J30" t="s">
+        <v>260</v>
+      </c>
+      <c r="K30" t="s">
         <v>261</v>
       </c>
-      <c r="G30" t="s">
-        <v>46</v>
-      </c>
-      <c r="H30" t="s">
-        <v>47</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="L30" t="s">
         <v>262</v>
       </c>
-      <c r="J30" t="s">
-        <v>263</v>
-      </c>
-      <c r="K30" t="s">
-        <v>264</v>
-      </c>
-      <c r="L30" t="s">
-        <v>265</v>
-      </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="O30" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
@@ -3245,12 +3735,8 @@
       <c r="Q30" t="n">
         <v>5</v>
       </c>
-      <c r="R30" t="n">
-        <v>5</v>
-      </c>
-      <c r="S30" t="n">
-        <v>5</v>
-      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
         <v>5</v>
@@ -3258,14 +3744,10 @@
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s">
-        <v>251</v>
-      </c>
-      <c r="X30" t="s">
-        <v>252</v>
-      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="31">
@@ -3281,52 +3763,50 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
+        <v>263</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>264</v>
+      </c>
+      <c r="J31" t="s">
+        <v>265</v>
+      </c>
+      <c r="K31" t="s">
+        <v>266</v>
+      </c>
+      <c r="L31" t="s">
         <v>267</v>
       </c>
-      <c r="G31" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" t="s">
-        <v>47</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
         <v>268</v>
       </c>
-      <c r="J31" t="s">
+      <c r="O31" t="s">
+        <v>60</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
         <v>269</v>
       </c>
-      <c r="K31" t="s">
+      <c r="X31" t="s">
         <v>270</v>
       </c>
-      <c r="L31" t="s">
-        <v>271</v>
-      </c>
-      <c r="M31" t="n">
-        <v>5</v>
-      </c>
-      <c r="N31" t="s"/>
-      <c r="O31" t="s"/>
-      <c r="P31" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>4</v>
-      </c>
-      <c r="R31" t="n">
-        <v>4</v>
-      </c>
-      <c r="S31" t="n">
-        <v>5</v>
-      </c>
-      <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>5</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
       <c r="Y31" t="s">
         <v>271</v>
       </c>
@@ -3365,37 +3845,31 @@
         <v>276</v>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N32" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
-      </c>
-      <c r="P32" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
       <c r="R32" t="s"/>
-      <c r="S32" t="n">
-        <v>5</v>
-      </c>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="n">
-        <v>5</v>
-      </c>
+      <c r="U32" t="s"/>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s">
+        <v>277</v>
+      </c>
+      <c r="X32" t="s">
         <v>278</v>
       </c>
-      <c r="X32" t="s">
+      <c r="Y32" t="s">
         <v>279</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="33">
@@ -3411,40 +3885,44 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
+        <v>280</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
         <v>281</v>
       </c>
-      <c r="G33" t="s">
-        <v>46</v>
-      </c>
-      <c r="H33" t="s">
-        <v>47</v>
-      </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>282</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>283</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>284</v>
       </c>
-      <c r="L33" t="s">
-        <v>285</v>
-      </c>
       <c r="M33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="O33" t="s">
-        <v>79</v>
+        <v>156</v>
       </c>
       <c r="P33" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q33" t="s"/>
-      <c r="R33" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
       <c r="S33" t="n">
         <v>5</v>
       </c>
@@ -3455,14 +3933,10 @@
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s">
-        <v>278</v>
-      </c>
-      <c r="X33" t="s">
-        <v>279</v>
-      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="34">
@@ -3478,58 +3952,1666 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
+        <v>285</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>286</v>
+      </c>
+      <c r="J34" t="s">
+        <v>287</v>
+      </c>
+      <c r="K34" t="s">
         <v>288</v>
       </c>
-      <c r="G34" t="s">
-        <v>46</v>
-      </c>
-      <c r="H34" t="s">
-        <v>47</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="L34" t="s">
         <v>289</v>
       </c>
-      <c r="J34" t="s">
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
         <v>290</v>
       </c>
-      <c r="K34" t="s">
-        <v>291</v>
-      </c>
-      <c r="L34" t="s">
-        <v>292</v>
-      </c>
-      <c r="M34" t="n">
-        <v>5</v>
-      </c>
-      <c r="N34" t="s">
-        <v>293</v>
-      </c>
       <c r="O34" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="P34" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q34" t="s"/>
-      <c r="R34" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
       <c r="S34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="X34" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="Y34" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>59869</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
         <v>294</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>295</v>
+      </c>
+      <c r="J35" t="s">
+        <v>296</v>
+      </c>
+      <c r="K35" t="s">
+        <v>297</v>
+      </c>
+      <c r="L35" t="s">
+        <v>298</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>299</v>
+      </c>
+      <c r="O35" t="s">
+        <v>60</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>59869</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>301</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>302</v>
+      </c>
+      <c r="J36" t="s">
+        <v>303</v>
+      </c>
+      <c r="K36" t="s">
+        <v>304</v>
+      </c>
+      <c r="L36" t="s">
+        <v>305</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>306</v>
+      </c>
+      <c r="O36" t="s">
+        <v>60</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>307</v>
+      </c>
+      <c r="X36" t="s">
+        <v>308</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>59869</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>310</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>311</v>
+      </c>
+      <c r="J37" t="s">
+        <v>312</v>
+      </c>
+      <c r="K37" t="s">
+        <v>313</v>
+      </c>
+      <c r="L37" t="s">
+        <v>314</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>315</v>
+      </c>
+      <c r="O37" t="s">
+        <v>156</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>316</v>
+      </c>
+      <c r="X37" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>59869</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>319</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>320</v>
+      </c>
+      <c r="J38" t="s">
+        <v>321</v>
+      </c>
+      <c r="K38" t="s">
+        <v>322</v>
+      </c>
+      <c r="L38" t="s">
+        <v>323</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>324</v>
+      </c>
+      <c r="X38" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>59869</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>327</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>328</v>
+      </c>
+      <c r="J39" t="s">
+        <v>329</v>
+      </c>
+      <c r="K39" t="s">
+        <v>330</v>
+      </c>
+      <c r="L39" t="s">
+        <v>331</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>332</v>
+      </c>
+      <c r="O39" t="s">
+        <v>85</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>333</v>
+      </c>
+      <c r="X39" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>59869</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>336</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>337</v>
+      </c>
+      <c r="J40" t="s">
+        <v>338</v>
+      </c>
+      <c r="K40" t="s">
+        <v>339</v>
+      </c>
+      <c r="L40" t="s">
+        <v>340</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>341</v>
+      </c>
+      <c r="O40" t="s">
+        <v>156</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>333</v>
+      </c>
+      <c r="X40" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>59869</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>343</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>344</v>
+      </c>
+      <c r="J41" t="s">
+        <v>345</v>
+      </c>
+      <c r="K41" t="s">
+        <v>346</v>
+      </c>
+      <c r="L41" t="s">
+        <v>347</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>348</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>333</v>
+      </c>
+      <c r="X41" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>59869</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>350</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>351</v>
+      </c>
+      <c r="J42" t="s">
+        <v>352</v>
+      </c>
+      <c r="K42" t="s">
+        <v>353</v>
+      </c>
+      <c r="L42" t="s">
+        <v>354</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>355</v>
+      </c>
+      <c r="O42" t="s">
+        <v>60</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>356</v>
+      </c>
+      <c r="X42" t="s">
+        <v>357</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>59869</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>359</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>360</v>
+      </c>
+      <c r="J43" t="s">
+        <v>361</v>
+      </c>
+      <c r="K43" t="s">
+        <v>362</v>
+      </c>
+      <c r="L43" t="s">
+        <v>363</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>364</v>
+      </c>
+      <c r="X43" t="s">
+        <v>365</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>59869</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>367</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>368</v>
+      </c>
+      <c r="J44" t="s">
+        <v>369</v>
+      </c>
+      <c r="K44" t="s">
+        <v>370</v>
+      </c>
+      <c r="L44" t="s">
+        <v>371</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s"/>
+      <c r="O44" t="s"/>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>59869</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>372</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>373</v>
+      </c>
+      <c r="J45" t="s">
+        <v>374</v>
+      </c>
+      <c r="K45" t="s">
+        <v>375</v>
+      </c>
+      <c r="L45" t="s">
+        <v>376</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s"/>
+      <c r="O45" t="s"/>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>59869</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>377</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>378</v>
+      </c>
+      <c r="J46" t="s">
+        <v>379</v>
+      </c>
+      <c r="K46" t="s">
+        <v>380</v>
+      </c>
+      <c r="L46" t="s">
+        <v>381</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>382</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>59869</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>383</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>384</v>
+      </c>
+      <c r="J47" t="s">
+        <v>385</v>
+      </c>
+      <c r="K47" t="s">
+        <v>386</v>
+      </c>
+      <c r="L47" t="s">
+        <v>387</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>388</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>389</v>
+      </c>
+      <c r="X47" t="s">
+        <v>390</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>59869</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>392</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>393</v>
+      </c>
+      <c r="J48" t="s">
+        <v>394</v>
+      </c>
+      <c r="K48" t="s">
+        <v>395</v>
+      </c>
+      <c r="L48" t="s">
+        <v>396</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s"/>
+      <c r="O48" t="s"/>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>389</v>
+      </c>
+      <c r="X48" t="s">
+        <v>390</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>59869</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>398</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>399</v>
+      </c>
+      <c r="J49" t="s">
+        <v>400</v>
+      </c>
+      <c r="K49" t="s">
+        <v>401</v>
+      </c>
+      <c r="L49" t="s">
+        <v>402</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>403</v>
+      </c>
+      <c r="O49" t="s">
+        <v>85</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>389</v>
+      </c>
+      <c r="X49" t="s">
+        <v>390</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>59869</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>405</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>406</v>
+      </c>
+      <c r="J50" t="s">
+        <v>407</v>
+      </c>
+      <c r="K50" t="s">
+        <v>408</v>
+      </c>
+      <c r="L50" t="s">
+        <v>409</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>410</v>
+      </c>
+      <c r="O50" t="s">
+        <v>411</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>59869</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>412</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>413</v>
+      </c>
+      <c r="J51" t="s">
+        <v>414</v>
+      </c>
+      <c r="K51" t="s">
+        <v>415</v>
+      </c>
+      <c r="L51" t="s">
+        <v>416</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>410</v>
+      </c>
+      <c r="O51" t="s">
+        <v>60</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>389</v>
+      </c>
+      <c r="X51" t="s">
+        <v>390</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>59869</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>418</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>419</v>
+      </c>
+      <c r="J52" t="s">
+        <v>420</v>
+      </c>
+      <c r="K52" t="s">
+        <v>421</v>
+      </c>
+      <c r="L52" t="s">
+        <v>422</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s"/>
+      <c r="O52" t="s"/>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>59869</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>423</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>424</v>
+      </c>
+      <c r="J53" t="s">
+        <v>425</v>
+      </c>
+      <c r="K53" t="s">
+        <v>426</v>
+      </c>
+      <c r="L53" t="s">
+        <v>427</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>428</v>
+      </c>
+      <c r="O53" t="s">
+        <v>60</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>389</v>
+      </c>
+      <c r="X53" t="s">
+        <v>390</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>59869</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>430</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>431</v>
+      </c>
+      <c r="J54" t="s">
+        <v>432</v>
+      </c>
+      <c r="K54" t="s">
+        <v>433</v>
+      </c>
+      <c r="L54" t="s">
+        <v>434</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>435</v>
+      </c>
+      <c r="O54" t="s">
+        <v>411</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>389</v>
+      </c>
+      <c r="X54" t="s">
+        <v>390</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>59869</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>437</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>438</v>
+      </c>
+      <c r="J55" t="s">
+        <v>439</v>
+      </c>
+      <c r="K55" t="s">
+        <v>440</v>
+      </c>
+      <c r="L55" t="s">
+        <v>441</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>442</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>443</v>
+      </c>
+      <c r="X55" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>59869</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>446</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>447</v>
+      </c>
+      <c r="J56" t="s">
+        <v>448</v>
+      </c>
+      <c r="K56" t="s">
+        <v>449</v>
+      </c>
+      <c r="L56" t="s">
+        <v>450</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>451</v>
+      </c>
+      <c r="O56" t="s">
+        <v>60</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>443</v>
+      </c>
+      <c r="X56" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>59869</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>453</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>454</v>
+      </c>
+      <c r="J57" t="s">
+        <v>455</v>
+      </c>
+      <c r="K57" t="s">
+        <v>456</v>
+      </c>
+      <c r="L57" t="s">
+        <v>457</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>458</v>
+      </c>
+      <c r="O57" t="s">
+        <v>60</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>443</v>
+      </c>
+      <c r="X57" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>59869</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>460</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>461</v>
+      </c>
+      <c r="J58" t="s">
+        <v>462</v>
+      </c>
+      <c r="K58" t="s">
+        <v>463</v>
+      </c>
+      <c r="L58" t="s">
+        <v>464</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="s">
+        <v>465</v>
+      </c>
+      <c r="O58" t="s">
+        <v>156</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>466</v>
+      </c>
+      <c r="X58" t="s">
+        <v>467</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>468</v>
       </c>
     </row>
   </sheetData>
